--- a/results/correct models/R4-computer-game1/attributes_contradiction_check.xlsx
+++ b/results/correct models/R4-computer-game1/attributes_contradiction_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,7456 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a planet has a murder site</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They actually align and provide information about the game's storyline and objectives.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously- a planet can have a murder site, and players can be investigating different planets to find it.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are complementary, as the first statement indicates that a planet has a murder site, and the second suggests that players need to investigate planets (possibly including the one mentioned in the first statement) to find this site.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. In fact, they are complementary.
+Statement 1 establishes that a murder site exists on a planet.
+Statement 2 suggests players (presumably in a game) are moving through the universe to investigate planets, including potentially the one mentioned in Statement 1, in order to figure out which one has the murder site on it.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can coexist as part of a storyline or scenario. The first statement establishes that a murder has occurred on a planet. The second statement sets the objective or goal of the player or participants, which is to investigate various planets in an attempt to discover the site of the murder.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They both discuss the concept of a murder site being located on a planet.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They both refer to a scenario where a planet is potentially a murder site. The first simply states that a planet has a murder site, and the second describes a game or objective centered around investigating planets to find this murder site.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. In fact, they complement each other and establish a possible premise for a game or story. The first statement specifies there is a murder site on a planet. The second statement suggests there is a player or character who is investigating different planets to find this specific murder site. These could easily be a part of the same context or scenario.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are actually related, indicating that there is a murder site on a planet and the objective of the game (presumably) is to locate it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a legal move has a speed</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement asserts that a legal move has a speed. The second statement suggests that the speed at which a player reaches a destination is primarily dictated by luck due to the spin of a wheel. It is possible for both to be true in a game where moves are made by spinning a wheel.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist together without contradicting each other. They both speak about the concept of speed, but refer to it in different contexts. The first refers to a move within a game, while the second refers to an element dictated by the spin of a wheel in a game.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement associates a speed with a legal move, presumably in a game or activity. The second statement describes an element, possibly the same legal move, being determined predominantly by luck. Both statements could coexist in the same scenario or context without contradiction.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement says that a legal move has a speed. The second statement says that this speed is determined by luck (due to the wheel's spin). These statements could both be true and occur in the same circumstance, so they are not contradictory or conflicting.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement is saying that a legal move in a game or sport has a certain speed, while the second statement is explaining how this speed can be determined in a specific context (spinning of a wheel, often in a game of chance). They both discuss the concept of speed in moves, but do not contradict or negate each other.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They might be referring to different activities or games yet both emphasize the concept of speed affecting the outcome. Statement 1 suggests speed is a factor in a legal move, perhaps in a digital game. Statement 2 indicates luck has a significant role in the outcome of a game element, that speed, determined by the wheel's spin, influences how quickly a player reaches a destination, perhaps in games like roulette or game show wheels. Both link move delays in games with speed.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. Both suggest that speed is a factor in a game or situation, though they propose different determinants of that speed (legality vs luck).</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement is a general assertion that a legal move has a speed. The second statement provides a specific example of a context (a game where a wheel's spin determines speed) in which the general assertion complicates, saying the speed at which a player reaches a destination is dictated by luck.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can be related in the context of a game where the speed of a move (Statement1) is determined by the spin of a wheel (Statement2).</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. Both discuss the concept of movement speed - the first in a vague general sense, and the second in a more specific scenario (likely referring to a wheel-based board game or similar). There isn't any disagreement between these viewpoints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a game move having a certain number of moves, possibly referring to a board game or video game. The second statement describes the method of winning a different type of game, potentially a murder mystery game. They're talking about different aspects of potentially different games.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They could both occur in the same context, such as in a game. The first statement could refer to the rules of gameplay, while the second could be a specific rule on how a player could win the game.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They could be referring to different aspects of the same game. The first statement refers to the rules of moving within the game, while the second statement describes how a player can win the game.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 describes a possible feature of a game related to the number of moves, while statement 2 describes a possible winning condition or method of a game. These two aspects could exist concurrently in a game without contradiction.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game - one is discussing the concept of legal moves, and the other is discussing a specific way to win the game.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No, the statements are not inconsistent. They appear to relate to different aspects of a game: Statement 1 describes a general rule about moves, while Statement 2 describes a specific way to win the game. However, without further context, it's difficult to definitively say if they belong to the same game or different games altogether.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They seem to describe different aspects of a game, one detailing a particular move and the other explaining how a game can be won.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a game. Statement 1 talks about the legal moves, while statement 2 explains a specific winning condition.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They could both apply to the rules of a hypothetical video game or board game. In Statement 1, "a legal move" could refer to the action taken by a player in a turn. In Statement 2, "announcing their murder hypothesis" could be one of the legal moves a player is allowed to make on their turn. These statements could refer to different aspects of the same game.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They appear to discuss different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Statement 1 suggests that a legal move in a game has a certain number of moves, and statement 2 explains the mechanism through which the number of moves are determined in a particular game. They are compatible, as the number of moves mentioned in Statement 1 might be decided by the mechanism stated in Statement 2.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. A game being an intergalactic murder mystery with a specific mechanism for determining movement does not prevent the possibility of that game having legal moves with a certain number of moves. The statements could both be true in the same context.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement mentions that a legal move has a certain number of moves and the second statement is merely describing the mechanics of a specific game. They are talking about different aspects and aren't mutually exclusive.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 indicates that a legal move in the game has a number of moves, while statement 2 explains the mechanism of how these moves are determined in the specific context of this intergalactic murder mystery game. Both can coexist and are part of the game rules and mechanics.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement speaks to a general term for games whereby a legal move has number moves. The second statement is more specific and also talks about a game with moves but does not contradict the first statement. They can both be true at the same time.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. Statement 1 suggests there is a certain number of moves allowed in a game, and statement 2 describes a mechanism by which these moves are determined. There is no contradiction between them. They could easily describe different aspects of the same game.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are providing information about game mechanics, how movements or moves work in a game context. Statement 1 is more general, whereas Statement 2 gives specifics related to a specific game.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. While the first statement is somewhat vague, it simply suggests a game where moves are defined by a certain number. The second statement describes a game with a specific scenario but also has moves determined by a number, in this case randomly selected by a wheel spin.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement suggests that there are legal moves and these moves are numbered. This could imply that it's a game where moves are regulated or listed. The second statement explains the specific game, emphasizing the randomness of the number of moves set by spinning a wheel. These statements could belong to the same context of describing a board game or similar gaming scenario - they do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. The first one talks about a legal move in a general or certain game having number of moves. The second one describes a specific game setup where players' movements are determined by a randomly selected number. Both can be true at the same time as they do not negate each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to the number of legal moves a player can make in a game. The second statement is about the structure of the game application, where each player is supported by a client. Both statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They are talking about different aspects and can coexist. The first is about conditions of a game action, the second is about the application's structure that supports the game.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They discuss two different aspects, one is about the nature of a game move, and the other is about the structure of a game application.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to the gameplay mechanics, while the second statement describes the network structure of the game application. They address different aspects of the game, hence they don't contradict each other.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects and could both be true at the same time. One is discussing the format of a move in a game while the other is discussing the structure of a gaming application.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are referring to two different aspects - one about any possible move according to rules in a game (presumably in a context of a game), and the other about the structure of a game application which supports individual player's view.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are about different aspects and can both be true simultaneously. They do not present contradictory information.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are talking about different aspects - statement 1 is referring to legal moves in a game, while statement 2 is referring to the structure of an application, specifically one with a client/server structure. There is no contradiction or disagreement between these two statements.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement speaks about the rules of a game while the second statement refers to the structure of a game application. They can exist in the same context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are speaking about separate facets of a situation - the first statement is about a legal move in a game while the second statement is about an application's structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about different aspects of a game - one is discussing a legal move while the other talks about the overall strategy of the game.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist in the same context as they refer to different aspects of a game. Statement 1 refers to the mechanics of a game, specifically the movement rules, while Statement 2 refers to the strategic aspect of gameplay.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement talks about a rule in a game while the second one describes strategies for a game. They might belong to different games or different parts/aspects of the same game. There is no direct contradiction or conflict in between the statements.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 is discussing a specific aspect of gameplay, while Statement 2 is discussing an overall strategy for the game. Both can exist within the same game without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about different subjects and can both be true at the same time.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They refer to different aspects of a game - one refers to the rules of play (legal moves) and the other refers to the game's strategy. They can both exist in the context of the same game.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement talks about the number of legal moves in a game, while the second statement describes the strategy aspect of a particular game. They can be aspects of the same game without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a game - statement 1 is discussing a specific move within the game, while statement 2 is discussing the overall strategy of the game.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both exist in the context of a complex board game or role-playing game where 'legal moves' might refer to the allowed actions in the game, which could include asking questions, selecting destinations, and making deductions. But it's also important to note that the compatibility of these statements also depends on the specific rules of the game being referred to.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different topics - one discusses a concept related to the move in a game, the other describes the strategy of a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about different subjects: the first about a rule in a certain game, and the second about a class project.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur or be true at the same time. They are about two different aspects; the first one is about the general concept of a game, and the second one is about a specific class project.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is about a certain rule or characteristic of a game, and the second one describes a specific class project to develop a certain game. There are no contradictory or conflicting points in these two statements.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different things - the first is about a move in a game and the second is about the goal of a class project. These could potentially be related if the class project is to create a game with specific legal moves, but there is not enough information given to determine that. They are not contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing two different topics. Statement 1 is speaking about a move in a game that is legal and has a certain number of moves. Statement 2 is describing a goal for a class project to implement a specific type of game. They are not opposing or contradicting statements.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They refer to different matters. The first statement refers to a feature of a game or simulation, stating that a legal move has a certain number of moves. The second statement is describing a class project which is to create an online game. These two statements can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about two different subjects. The first one is about a legal move presumably in a game context, while the second one is about creating a class project which is an internet-based game. These statements can exist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different topics - the first one is about a move in some kind of game, and the second one is explaining the goal of a class project. There's no conflict between these statements.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are discussing two different things and can both exist and be true in their own context. Statement 1 discusses a concept within a game where a legal move has a number of moves, whereas Statement 2 describes the goal of a class project which can include Statement 1 as a part of its game mechanics. However, without additional context, the direct relationship between these two statements cannot be determined.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different topics; the first is about a legal move in a game, and the second is the description of a class project based on a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a generic legal move having number moves, while the second statement talks about a specific action of entering the planet's atmosphere and how many moves it requires. The number of moves might be different, but that does not contradict the basic idea that a move has a number of moves.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time. In a game, a player can make a legal move with a certain number of moves and also enter the planet's atmosphere with a different number of moves. They are different aspects of gameplay and not contradictory.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing the number of moves in different contexts - statement 1 is referring to a legal move in a game (likely chess or checkers), while statement 2 is possibly referring to a video or board game where a player can enter a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to a rule or condition in a game that a legal move has a certain number of moves. The second statement implies that there are different strategies or paths a player could take to enter the planet's atmosphere, which could involve a different number of moves. Both can coexist in the same game. It is possible that the game rules allow a variable number of moves for different actions, strategies or scenarios.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about different situations and concepts. The first statement refers to the legality of a move in possibly a game and it having a certain number of moves. The second statement refers to the player's ability to enter a planet's atmosphere with a different number of moves. These two statements can be true at the same time and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement says that a legal move in a game or situation has a certain number of moves. The second statement refers to a specific action (entering the planet's atmosphere) that the player can perform in a different number of moves. This could mean that the action can be performed faster or slower, depending on the player's decisions or skills. These statements could be referring to different actions or situations in the same game or context.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. Both imply that there's a certain number of moves involved, although they refer to different contexts.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are simply talking about some form of action or move in different contexts. The first one refers to a move in a game possibly, while the second one might be referring to a move in a video game or simulation. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can coexist. The first statement implies that a legal move in a game or situation has a certain number of moves. The second statement suggests that a player's entry into the planet's atmosphere can be achieved in various number of moves. Both could possibly apply to the same game or simulation depending on its rules and mechanics.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both allow for variation in the number of moves, but they pertain to different situations - a generic "legal move" versus entering a planet's atmosphere in a player game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. Mutually exclusive events are those that cannot happen at the same time. In this case, one statement is regarding the rules of a game (the number of moves) and the second statement is regarding the outcome of the game (the first player to accomplish something wins). These two events do not preclude each other from happening.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to be referring to rules of a game, but they aren't contradictory.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement describes the game's mechanic, while the second statement describes the game's objective or winning condition.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about two different aspects of a game: the first one is discussing the rules of gameplay, while the second one is discussing the win condition.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They appear to refer to different aspects of a game: the first regarding the specifications of a move and the second regarding the winning condition. However, without more context, it is difficult to fully determine their relationship or any potential inconsistency.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are about different aspects of a game, they can both be true without contradicting each other. Statement 1 discusses the structure of the game (a legal move), whereas Statement 2 discusses the win condition of the game.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are talking about different aspects of a game; the first is referring to the rules of movement in the game, and the second is about the winning condition. They do not contradict or oppose each other.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. 
+Statement 1 is talking about the nature of a legal move in a game, implying that each legal move consists of a certain number of sub-moves or steps.
+Statement 2 is about the win condition of the game. It says that the player who first accomplishes a certain unnamed task or condition will win the game.
+These two statements can both be true at the same time and are not mutually exclusive or in conflict. They can both apply to the same game - for example, a game where each player's turn involves making a certain number of legal sub-moves, and where the first player to reach a particular goal wins.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are just describing different aspects of a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first one is referring to the parameters of a move within a game and the second one is detailing the role of the server in the coordination and sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur in the same situation, like in a multiplayer online game scenario where a player can make a legal move (Statement 1) overseen by the server which coordinates communication and events (Statement 2).</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing two different aspects of a game; the first is talking about mechanics of a specific move and the second explains the server's role in a multiplayer game setting.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement talks about the aspects of a specific game move, whereas the second statement describes the role of the server in a game. They cover different topics.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game and do not contradict. One speaks about the legal move in a game, while the other discusses the role of a server in a multiplayer game.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement speaks about a move in a game, possibly referencing the number of steps or potential options for a legal move. The second statement describes the role of a server in orchestrating game play. They don't contradict each other; they talk about different aspects of a gaming scenario.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. Statement 1 is about a game move while statement 2 is about the server's role in a game. They discuss different aspects of gaming and are not contradictory.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are talking about different aspects of a game, one is about the specific actions within the game (legal move) and the other is about the broader coordination and management of the game as a whole.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They discuss different aspects related to a game; the first pertains to the mechanics of gameplay, while the second refers to the server's role in facilitating communication and organizing the game flow. It is possible for both to be true in the context of a game.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a game - one is about a specific move and the other is about the server's role.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They seem to be referring to different aspects or features of a game. The first statement talks about the number of legal moves, while the second statement describes how entry points are represented in the game.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They could both apply to a single situation or context, such as in a board game or a video game. One refers to the number of legal moves possible while the other describes certain aspects of the game's visual design. They are different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to describe different aspects of a game. Statement 1 refers to the mechanics of making a move, and Statement 2 describes a visualization feature in the game.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They refer to different aspects of a game, one referring to the number of possible moves and the other describing how the game is graphically depicted.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game and don't contradict or oppose each other.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They may be talking about different aspects of the same game, but there is no direct contradiction between them.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are just discussing different aspects of a game, one about the number of moves, the other about the visual representation of entry points on the board.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are simply discussing different aspects of what could be a game - Statement 1 is about the legality and quantity of moves, while Statement 2 describes visual representation of entry points on a game board. They do not contradict or dispute each other.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They address different aspects of a scenario, presumably of a game. The first statement talks about the mechanics of moving in the game, while the second statement describes the visual representation of specific elements in the same game. They both can exist together without contradiction.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They appear to be talking about different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a general rule that a legal move has a certain number of moves, whereas the second statement describes a specific situation where a player can choose a different type of move. This could be a special rule or exception in the game.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously without conflicting each other. The first refers to the number of moves in a legal move and the second refers to a specific optional rule in the game.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are about different aspects of what seems to be a game. The first is about numbers of moves being legal, and the second is about a specific option a player may have depending on his/her token's location.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to a rule in a game where a move is regulated by a numbered restriction or system. The second statement is an additional rule in the same game, where under certain conditions (token resides on a planet with wormhole connection), a player may disregard the typical numbered move system in favor of using the wormhole. Both can exist within the same set of game rules without conflict.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about two different scenarios or rules within a game. The first statement is a general statement about a legal move, whilst the second statement explains a specific rule about players with tokens on certain planets.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are about different things and can exist in the same system. Statement 1 refers to the general concept of moves in a game, and Statement 2 refers to a specific kind of move in that game and doesn't contradict the first statement.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of what appears to be a board game, with the first talking about legal moves and the second about specific player choices.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They appear to be discussing different aspects of a game's rules and do not contradict each other. Statement 1 discusses a legal move in general, without any specifics, while Statement 2 outlines a specific rule about a specific kind of move in the game.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are simply referring to different rules within the same game. Statement 1 refers to a rule about the number of legal moves a player can make, while Statement 2 describes a specific game action a player can take if their token is on a certain planet. They can exist and apply in the same game without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They appear to be discussing different aspects of a game, with the first discussing a general aspect of gameplay and the second discussing a specific rule or option within the game. There is no contradiction or conflict between the two statements provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One is discussing the mechanics of a move within a game, while the other is discussing how and where the game can be played.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both be true at the same time. A game can be both Internet-based, allowing remote play, and still involve moves that are counted or numbered. The two concepts are not inherently contradictory.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are talking about different aspects of a game, one about the mechanics of making a move and the other about the platform where the game is played.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They refer to two different aspects of a game – one is about the rule or mechanism of the game (how a move is made) and the other is about the platform or venue of the game (being played over the Internet). They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects and do not contradict each other. Statement 1 talks about the moves in a game, while statement 2 talks about the platform or medium through which the game is played.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They're discussing two different aspects of a game: statement 1 is about the rules of the game, while statement 2 is about the medium or platform of the game. They can both be true at the same time without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects; Statement 1 is about the actions within a game, and Statement 2 is about the platform or way the game is played.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects - one discusses a characteristic of gameplay while the other discusses the mode of playing the game.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. One is describing the feature of a game move and the other is talking about the platform or medium of the game. Both can co-exist in the description of a same game.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects; Statement 1 talks about a move in a game, and Statement 2 describes features of the game itself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about different aspects of a game; statement 1 is about the rules of moving within the game and statement 2 is about the consequences of making incorrect decisions or strategies in the game.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur or be true at the same time. One is discussing the property of a legal move in a game, while the other is discussing a player's action and its consequence.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. Statement 1 is about the technical aspect of a game play while statement 2 is about the consequence of a player's incorrect cognitive processing. They are addressing two different aspects of game playing.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement speaks about the technical rules of a game, stating how many moves are legal. The second statement also talks about the rules but more about strategic and cognitive aspect of the game, stating a potential consequence for drawing incorrect conclusions. They discuss different aspects of game play rules, but do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No, these two statements do not negate each other. They discuss different aspects of a game or a situation, one focuses on the legality of moves and the other on the consequences of incorrect conclusions. There is no direct contradiction or negation involved.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They both can be true in the context of a game. The first statement implies that there is a set number of moves that are allowed in the game while the second statement suggests a rule of the game about drawing incorrect conclusions. They deal with different aspects of the game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different aspects of a game - the rules of movement and the consequences of incorrect conclusions or decisions.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>No, the two statements are not in disagreement as they are discussing different aspects of a game; statement 1 is about the rules pertaining to moves within a game, and statement 2 is about the consequences of drawing an incorrect conclusion in a game. However, without specific context, they are fairly ambiguous.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They discuss different aspects of a game - 'Statement 1' talks about a specific move in the game, and 'Statement 2' refers to the consequences of a player's mistake. The two statements can exist simultaneously without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing two different aspects of a game, the first statement discusses the rule or mechanics of the game itself, while the second statement discusses the implications for a player making a mistake.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a move in a game having a certain number of moves, while the second statement is about the strategy involved in the game which includes reaching certain locations quickly. These statements can exist simultaneously without contradiction.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No, these two statements are not mutually exclusive. They can both occur in the same context, for example, in a strategy game that involves moving around a board to investigate different locations.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They could potentially be discussing different aspects of the same game.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to the allowable actions or moves in a game, while the second one describes the strategy or objective involved in the game. Both could be true in the same game context.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They seem to discuss different aspects of a game. The first would refer to the rules of how moves are made within the game, while the second refers to a specific tactic or strategy within the game.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They appear to be discussing different aspects of a game - statement 1 is discussing the technicality of moves within the game, while statement 2 is discussing the strategy or objectives within the game. Without more context, it's impossible to definitively say, but there's nothing in these two statements that directly contradicts each other.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects of a game and do not present contradictory ideas.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They discuss different aspects of a theoretical game and can coexist. The first talks about the mechanics of making moves in the game, while the second describes the strategy or objective of the game.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both exist in the context of a game. Statement 1 is describing that a legal move in the game involves a certain number of moves, while statement 2 is describing a strategy or action within the game. These statements could refer to different aspects of the same game. However, without further context or specific definitions for terms like 'legal move', 'number moves', or 'suspicious locations', it's difficult to provide a more specific interpretation.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects and do not contradict each other. One talks about the legality of moves in a game, while the other refers to the strategy involved in the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are about different aspects and could both be true in a game context. One refers to a player's successful outcome, while the other refers to shared information among players.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It is possible for a player to win at the same time as a murder hypothesis is communicated to all players, suggesting they can co-occur. Mutual exclusivity refers to situations where the occurrence of one event precludes the occurrence of another.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No, these two statements do not clash or conflict with each other. They seem to address different aspects of what could be a game scenario. The first statement talks about a player being successful or achieving something, while the second statement could be referring to a mystery game element or a goal that players have to figure out. They can exist simultaneously without contradiction.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are talking about different aspects of a possible game or event. One refers to a player winning and the other refers to a specific piece of information being shared among players. These can both occur in the same context without conflicting.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about two different things and have no contradictory element.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent as they address two different subjects. The first one pertakes to a potential result in a game, while the second one discusses an aspect of a mystery or role-playing game scenario. The two could coexist in the same situation.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are about different subjects and don't have any contradictory points.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing two different subjects and are not contradictory.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are talking about different aspects and can exist in the same context. For example, in a murder mystery game, a player can be a winner and the murder hypothesis could be communicated to all players.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints as they are discussing different topics. The first statement is about a game result and the second one pertains to a hypothetical scenario, possibly in a game like "Murder Mystery." They are neither agreeing nor disagreeing with each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a player winning while the second statement describes the role of the server in the game.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No, these two statements are not mutually exclusive. They can both occur at the same time without contradicting each other. The first statement is about the outcome of a game, while the second is about the logistics of how a game operates.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are about different aspects of a game - the first one about a player having a winner and the second one about the server's role.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No, these two statements are not in contradiction with each other. The first one suggests that a player has won a game, while the second statement describes the role of the server in managing a multiplayer game. These two pieces of information address different aspects and are not directly related.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They discuss two different aspects of a game: one refers to a player having a winner (perhaps indicating the result of a game), while the other details the responsibilities of a server within a multiplayer game context. There is no direct contradiction between the two statements.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement talks about a player achieving a victory in a game, while the second statement refers to the role of a server in managing communication and game events. Both can exist in the same context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of a game - the first statement discusses the outcome (a player winning), and the second describes the function of a server in an online gaming setup.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>No, these two statements are not in disagreement. They are talking about different aspects of a game. Statement 1 is about the result of a game, and statement 2 explains a technical process within the game.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are discussing two different aspects of a game. Statement 1 is about a player's status or achievement in a game while Statement 2 explains part of the game's system or structure.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints as they are discussing different aspects of a game. The first statement talks about the outcome for a player while the second one discusses the role of a server in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about different aspects of a game. One talks about a player winning and the other describes a feature of the game's graphical representation.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist or occur at the same time. One talks about a player winning a game, while the other describes a feature of the game itself. These are not contradictory, thus not mutually exclusive.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are talking about different aspects of a game - one is referring to a player winning and the other is describing a visual element of the game.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of a game - one is discussing a victory condition (a player has a winner), while the other is describing a visual element of the game (the graphical depiction of entry points). They can both exist simultaneously without contradiction.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They discuss different topics: the first is about a player's success in a game, and the second describes a feature of a game's interface.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are discussing two different aspects of a game - one about a player's status and the other about the game's visual representation. There is no contradiction between the two.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are referring to different aspects and can both be true at the same time. The first statement talks about a player having a winner, while the second statement is describing a feature of a game. These two aspects are not inherently contradictory.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing different aspects. Statement 1 is talking about a player having a winner, presumably in a game. Statement 2 is describing how entry points are represented in a presumably different game. They do not contradict or argue against each other.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They refer to two different aspects - one refers to the outcome of a game and the second refers to the graphic design or user interface of a game. They aren't contradictory or mutually exclusive.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints as they are discussing different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A legal move consists of a player moving their token, the number of moves determined by the spinner, either horizontally or vertically, but not diagonally.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One statement is about the existence of a winner in a game, while the other explains the rules about legal moves in the game. They address different subjects.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. One statement is about a player winning while the other statement pertains to specific rules of a game. They address different aspects of a game and can both occur at the same time.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing different aspects of presumably the same game. One statement mentions a player having a winner, while the other describes a rule of the game.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They describe two different aspects of a game: the outcome (a player winning) and the rules for movement within the game.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No, these two statements do not negate each other. They are discussing different aspects of a game - one is about a player winning, and the other is about the rules of movement within the game.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They refer to two different aspects of what seems to be a board game. Statement 1 refers to the outcome of a game while statement 2 describes one of the game rules. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. One statement is about the outcome of a game (a player being a winner) and the other is about the rules of the game (a legal move).</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement talks about a player being a winner, while the second statement describes the rules of a game. They address different aspects and can both simultaneously be true.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are discussing two separate aspects of a game - the outcome (Statement 1) and the rules for play (Statement 2). They do not contradict each other or present impossibility when considered together.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of a game - one is about the outcome (a player winning) and the other is about the nature of the gameplay (how a legal move is made).</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One talks about a player being a winner, and the other talks about the process of proving a hypothesis in a game scenario. They are about different aspects and can coexist.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can occur at the same time without contradiction. It seems like they might pertain to different aspects of a game or activity – one related to winning, and the other related to forming a theory of a crime for others to disprove.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is about a player having a winner which probably in the context of a game. The second statement expands on the nature of the game, where the remaining players need to disprove a hypothesis using their evidence. Both are discussing aspects of a game, possibly a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They can describe different aspects of a game. For example, in a murder mystery game, a player can "have a winner" meaning he/she/they is/are the one who correctly identifies the murder circumstance and perpetrator. Statement 2 simply lays out the process of how the game is played. Both statements can exist cohesively in describing a game scenario.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects and can both occur in the same scenario, such as in a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They appear to refer to two different aspects of a game, presumably a mystery or detective game. Statement 1 refers to the end result of the game, where one player emerges as the winner. Statement 2 describes the process or mechanism of the game, where players form hypotheses about a murder case and others are asked to disprove these. The statements do not contradict each other and can both be true in the same context.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They seem to be describing different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing two different subjects. Statement 1 is about a winner in a game, while Statement 2 is about forming a hypothesis in a murder mystery game. They do not contradict or challenge each other.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They refer to different aspects of a game, possibly a murder mystery game. Statement 1 pertains to a player winning the game, while Statement 2 explains part of the game's process or rules. They can exist in the same context.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints as they are discussing different topics. The first one is exploring a winning situation in a game, while the second one is discussing a hypothesis relating to a murder mystery game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Players may also travel through a few strategically placed wormholes.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a potential outcome in a game, while the second statement introduces a game mechanic. They could both be true in the same context.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. The outcome of one does not affect the possibility of the other. A player can have a winner and also, players in the same game can travel through strategically placed wormholes. These events can occur independently or simultaneously.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to be talking about different aspects of what could potentially be the same game: winning and the ability to travel through wormholes.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of a game and do not contradict. One is about a player winning and the other is about a feature in the game.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different topics and have no opposite meaning or implication against one another.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can refer to two different aspects during a game play. The first statement refers to the outcome of the game and the second statement refers to the gameplay or the game mechanics.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects and can both be true at the same time. The first statement is about competition while the second statement is about a feature of a game.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both exist in the context of a same game where a winner can be declared and players can also travel through wormholes as a part of game strategy. They do not contradict each other in any way.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about completely different subjects. One is about winning and players, and the other is about travelling through wormholes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They discuss different aspects of a game: one refers to the possibility of having a winner, and the other outlines a rule of gameplay.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time without contradicting each other. One statement is about a player winning, and the other statement is about a rule of gameplay. These two concepts don't inherently conflict with each other.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing two different aspects of a game: Statement 1 is about the outcome (someone winning), and Statement 2 is about a rule of the game (not moving into a cell occupied by another player's token).</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement simply signifies that a player has won in some point of the game. The second statement is a rule of the game, stating that a player cannot occupy a position that is already occupied by another player's token. They are talking about different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different elements of a game; Statement 1 is referring to a game outcome, and Statement 2 is giving a rule of gameplay.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement implies that a player can win the game, while the second one details a rule within the game. These two conditions can coexist in many games.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects or rules of a game. One is discussing the outcome (a player winning) and the other is discussing a rule of gameplay (not moving into a cell occupied by another player's token).</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different aspects; one is about a game's outcome (having a winner) and other is outlining a rule of the game (not moving into a cell occupied by another player's token).</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are concerning two different aspects of a game. Statement 1 discusses the outcome of the game (a player winning), and Statement 2 discusses a rule or restriction within the game (not moving into a cell occupied by another player's token).</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a game (winning and movement rules), not opposing views on the same topic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are discussing different aspects of what could be a game or scenario. The first discusses the outcome of a game and the second discusses a part of the gameplay or interaction process.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time without contradiction. One statement is about a player winning a game and the other statement is about the interaction between players in a game.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One is about having a winner in a game and the other is about the interactive nature of the game.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement talks about a player having a win, and the second statement talks about the actions players can take during the game. Both can exist in the same game context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about different aspects and can both be true at the same time. The first one discusses the success of a player, whereas the second one discusses the process or rules of a game.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can both exist in the same context, for instance, in a game scenario. It is possible for a game to have a winner (Statement 1) and for the players to be able to interact and ask each other questions during the play (Statement 2).</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of what seems to be a game scenario. The first is referring to the outcome (a player being a winner) while the second is discussing a specific rule or mechanic in the game (players asking each other about information) they do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They discuss different aspects of a game or certain type of play and do not contradict each other. The first statement discusses the outcome of a game while the second one describes a rule or condition within the game.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. They can exist together in a context such as a game or quest where players compete to win, part of which involves gathering information from other players.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects of a game. The first statement is about the outcome of the game (a player winning), while the second statement regards the game play process (players can ask about the information each holds).</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement suggests that there is a winning player in a game. The second statement describes the type and mechanics of the game but does not explicitly state that there cannot be a winner.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It is possible for a player to be a winner in an intergalactic murder mystery board game.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement could be referring to the outcome of the game described in the second statement.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement suggests that there is a winner in the game, while the second statement describes the mechanics of the game. Both the statements can be true at the same time.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about two different aspects of a game. The first statement is about the outcome of the game (having a winner), while the second statement describes the game's mechanics or theme.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement indicates that a player has won, and the second statement describes the nature of the game. A winner can be declared in the game described in the second statement as well.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement discusses a player having a winner, meaning one participant in the game eventually wins. The second statement describes a type of game, without saying anything about how or if someone wins or does not win.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different aspects. Statement 1 is about a game having a winner while statement 2 is about the features or mechanics of a particular game. Neither contradicts the other.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. Statement 1 suggests that in this game, there can be a winner. Statement 2 just describes more details about the nature of the game. It is very possible in games with such a setting for there to be a winner. Therefore, these two statements can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a game; statement 1 talks about a winner in the game, while statement 2 describes the game scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One statement discusses a winning player, while the other discusses the dissemination of information and evidence among other players.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. The first statement refers to a player winning, while the second refers to an unrelated action of refuting a hypothesis. They can both happen concurrently.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to be discussing different aspects or parts of a game or experiment and therefore, can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 simply states that a player has won, while Statement 2 talks about a completely different scenario where a hypothesis was refuted and evidence needs to be shown to others. These statements can exist independently and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are referring to two different contexts and are not directly related or opposite in meaning.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can exist in the same scenario where a player (in a game, possibly) has won (Statement1), and perhaps this outcome refutes a previous hypothesis or expectation about the gameplay. This information is then communicated to other players (Statement2). However, they may still need to be shown the specific piece of evidence or the particular move that led to the player's victory, refuting the original hypothesis.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects and could potentially be part of the same situation or event, but one does not contradict or counteract the other.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different topics: one is about a victory in a game and the other is about a refuted hypothesis in a discussion or analysis. They can both exist in the same context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, these statements are not incompatible. The first statement relates to a player achieving a goal or victory, and the second statement relates to how other players are given information. They can exist simultaneously in a game situation. For example, in a murder mystery game a player could 'win' by correctly guessing the murderer, while the other players are given a piece of evidence that refutes their own hypotheses.
+</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. The first statement mentions about a player winning, whereas the second statement discusses about a refuted hypothesis and the need to show evidence. These two statements are about different topics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement simply states that a player has a winner, while the second statement details a specific rule of the game regarding incorrect hypotheses. The second statement does not state or imply that a player cannot win, so it does not contradict the first statement.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. "Mutually exclusive" means that the occurrence of one event precludes the occurrence of the other. However, in these statements, a player could potentially have a winner (Statement 1) and also be subject to the rules of incorrect hypotheses (Statement 2). They do not necessarily contradict each other and both could be true at the same time.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement expresses that a player has a win, but does not specify conditions affecting their win or loss. The second statement provides a specific condition under which the player would lose, but that does not contradict any information given in the first statement. It's possible for both statements to be true in different scenarios or at different times.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement simply states that a player has won. The second statement defines a rule of the game, where if a player's hypothesis is incorrect, they lose the ability to make certain game actions. This doesn't contradict the possibility of a player winning the game.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game. Statement 1 is about a player winning, while statement 2 is discussing a possible rule or condition that determines what happens when a player guesses incorrectly.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. Statement 1 simply states that a player has won, while statement 2 describes a condition in which a player can lose the game. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement simply declares that there's a winner in a game, while the second statement explains a rule or condition in the game that could lead to a player losing.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement simply asserts that a player has won a game, while the second statement outlines a specific rule or condition within a game. The two statements could exist in the same game without contradiction.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement indicates that a player has won the game, while the second statement discusses the consequences if a player makes an incorrect hypothesis. These scenarios could easily coexist in the same game. The player who has won could be someone who never made an incorrect hypothesis, or could have won before making an incorrect hypothesis, etc. A player losing does not negate the possibility of another player winning.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a game: the potential for a player to win and a specific rule within the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They both suggest there is a win condition in a game, which when fulfilled, determines the winner.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time. In fact, they complement each other in describing a gaming situation. If a player has a winner (presumably meaning they have achieved the winning condition for the game), and the rules state that the first player to do so wins the game, these two conditions can both be true simultaneously.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They both refer to a player winning something.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They both suggest winning conditions in a game.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They both refer to a player winning or being victorious, but they do not imply the opposite of one another.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They seemingly refer to a game where a player is trying to achieve a certain goal or condition that will make them the winner. Statement 1 refers to a player potentially having met that condition, while statement 2 simply outlines the rule that the first player to meet that goal wins.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are both referring to a winning condition in a game.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. Both of them are related to a player winning something – a game or a competition. The first statement suggests that someone (a player) has won a game or a competition, while the second one explains one of the possible rules of a game, that the first player to achieve something specific is the winner.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They both relate to the concept of winning in a game context. Therefore, they can both coexist in the same scenario without conflict.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is referring to the outcome of a game, presumably declaring a player as the winner. The second statement is explaining a rule or mechanic within the game itself regarding movement between planets.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. Mutually exclusive means that if one of the statements is true, the other must be false. From the information given, these two statements can both be true at the same time. Having a winner in a game doesn't prohibit the stipulation of having a wormhole direct transport option in the game.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One is about some type of victory for a player while the other provides information about a specific move a player can make within the game.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects related to a game. The first one tells us a fact that a player has won, and the second one talks about an option a player in the game has. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game and not directly contradicting each other.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are discussing different aspects of a game. Statement 1 indicates that a player has won something (maybe the game or a round) and Statement 2 describes a rule or action a player can take within the game. They don't contradict each other.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of what seems to be a game. One talks about a player winning and the other about a game strategy.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of what seems to be a game. Statement 1 discusses a player winning and Statement 2 outlines one of the rules or strategies within the game. There's no conflict between the two statements.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are discussing different aspects of a game. The first statement refers to a potential outcome of the game (a player winning) and the second statement is explaining a rule or action within the game (traveling between planets using wormholes). They can coexist in the same game without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of what seems to be a game, one discussing a winning player and the other explaining a rule or option within the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement simply states that a player has won a game. The second statement explains a scenario under which a player could lose a game. It does not state that a player has actually drawn an incorrect conclusion and thus lost a game. Therefore, these statements could both be true.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's possible for both to occur - a player may have a winner but still lose the game if they draw an incorrect conclusion.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One is indicating that a player can win (Statement 1) and the other is describing a condition under which a player can lose (Statement 2). These scenarios can exist simultaneously without conflict.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They can coexist, as a player can have a win in the game, but if that player draws an incorrect conclusion in a subsequent move or round, they can also lose the game.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing two different aspects of a game. The first statement is discussing the fact that there is a winner in a game, while the second statement is outlining a specific rule or condition within the game.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can exist together without contradiction. A player can win a game (statement 1) but if they draw an incorrect conclusion (statement 2), they can lose the game. One statement does not negate the other.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of a game (having a winner and a condition for losing) and do not directly contradict or counter each other.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are referring to different aspects of a game - Statement 1 refers to the existence of a winner in a game, while Statement 2 sets a condition for losing the game. There is no contradiction or disagreement between them.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. It is possible for a player to have a winner (presumably in a previous or future game) while also operating under rules where drawing an incorrect conclusion results in a loss. These statements could refer to different games, different rounds within the same game, or different hypothetical scenarios. More context would be needed to understand their full relationship, but they do not inherently contradict each other.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. One statement talks about a possible outcome of a game (a player winning) whereas the other talks about a condition in which a player might lose the game. They can coexist without contradiction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. A player can have a winner (Statement 1) and the solution can be broadcast to all players (Statement 2).</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They could both exist in the same context, such as in a game where both a winner is determined and solutions (perhaps to puzzles or challenges) are broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No, these two statements are not at odds with each other. They could very well apply to the same situation. For example, in a game where a player wins and the solution or winning move is then shared with all players.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects and can both exist simultaneously. The first statement is about a player having a winner (perhaps in a game or competition), and the second statement is about a solution being communicated to all players (perhaps in a game, or it could be in a problem-solving context). The two statements are not inversely related, so they do not negate each other.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No, these two statements are not inconsistent. They do not contradict each other. The first statement refers to a player having a winner which can be in a context of a game or a tournament. The second statement talks about a solution being broadcast to all players which could refer to a problem or challenge being solved and then that information being shared with everyone involved. While they may not necessarily be immediately related, they do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects and could possibly occur in the same scenario. The first statement is referring to a player winning, while the second statement is explaining what happens after a solution is found.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are addressing different aspects of a situation, likely a game or competition of some sort. The first statement is indicating that a player has won, while the second is detailing the process after the solution or result is determined. They do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They talk about different aspects of a situation, presumably a game or a competition of some sort. The first statement talks about a single player having a winner, which might imply that the player is a participant in a competition or game. The second statement talks about a solution being shared with all participating players. These could both occur in the same scenario.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They address different aspects of a game or competition process without contradicting each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. A game can have both a winner and an objective of gathering clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's possible for a game to both have a winner and for its objective to be gathering clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One statement talks about a player having a winner, and the other statement discusses the objective of a game. These can exist simultaneously without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No, the statements are not at odds with each other. One statement could reference the outcome of a game or competition (a player has a winner), while the other statement could describe the goal or purpose of a specific game (the game's objective is to gather clues while traveling about the universe). These two elements can coexist within the same game.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They discuss two different aspects of a game. One talks about a player having a winning status and the other explains the objective of the game.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can both be true at the same time - a game can have an objective of gathering clues while traveling about the universe and still have a winner who completes that objective the best or fastest.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. One speaks about a winner in a game while the other describes the aim of a game. They could likely be from the same game, and do not present conflicting information.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They address different aspects: one is about the outcome of a game and the other describes the objective of a game. These can apply to the same game without contradiction.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. A game can have the objective of gathering clues while traveling about the universe and still have a winner. The player who best achieves this objective could be declared the winner.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects; one is about a game outcome (a player winning), and the other is describing the game's objectives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is about a player having a winner which could be in any game or context. The second statement is talking about an element of a game being primarily dictated by luck, not necessarily negating the possibility of a winning player.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. A player can win a game that is primarily dictated by luck.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are talking about two different aspects. Statement 1 suggests a player has a winner or is successful whereas statement 2 describes the amount of luck involved in a certain game element. They can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No, these two statements are not at odds with each other. The first statement is about the existence of a winner in a game and the second statement is about how luck plays a major role in determining the speed at which a player reaches a destination in the game. These two statements can simultaneously be true in a game setup.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects. Statement 1 talks about a player having a winner (perhaps referring to a game or competition), while Statement 2 discusses how luck plays a role in determining the speed at which a player reaches a destination (possibly referring to a game mechanic or rule).</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can both exist in the context of a game where a player can win, but the outcome is significantly influenced by luck, such as in roulette.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. One statement talks about a player having a winner, while the other discusses how luck plays a significant role in a game. They are discussing different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects: one is discussing a player having a win whereas the other is discussing the possible role luck plays in a game. They could be potentially related if discussing the same game, but one does not contradict the other.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. The first statement could be referring to a game where a player has won while the second statement could be describing a mechanic of chance within that game that ultimately affects the outcome. They speak about different aspects of a game and do not necessarily contradict.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of a game; one indicates a player winning while the other refers to the luck factor in the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about two different subjects: one is about a game or competition and the other is referring to spatial location.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They are about completely different subjects and one does not affect or contradict the other.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They appear to be describing two different aspects or situations and do not contradict each other in any way.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other as they are discussing two different subjects or concepts. The first statement is about a player winning in a game or sport while the second statement is about the physical location of the player, presumably in a sci-fi context involving travel to different planets. They can both be true without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing two different topics altogether— one about a winner in a game and another discussing a player's status based on a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No, the statements are not inconsistent. They are actually unrelated, each pertaining to entirely different contexts - one relating to games or sport and the other to space exploration or science fiction possibly. There is no direct contradiction or incoherence between the two statements.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different subjects and are not related.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>No, the two statements aren't in disagreement. In fact, they don't even seem to be related to each other. One talks about a winning player while the other refers to a player's location in a celestial context.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>No, these statements aren't incompatible. They appear to be referring to different subjects or contexts and don't contradict each other. One talks about a player having a winner, which seems to be about a game or sport. The other refers to the location or status of a player relative to a planet's atmosphere, which might fit a context like a space exploration or sci-fi video game. However, they don't provide counterpoints to each other.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing completely different topics; one is about a player winning in a particular context, and the other is about the moment a player is considered on a planet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One refers to a player having a winner (potentially implying the player is involved in a game or contest with a winning outcome). The second statement describes the player's objective in a game or activity, which doesn't negate or conflict the possibility of there being a winner.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. Mutually exclusive means that both conditions cannot exist at the same time. However, in this scenario, a player can have a winner (Statement 1) and still have the objective to investigate specific planets to determine if that was the murder site (Statement 2). These conditions do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They refer to different aspects and can coexist. The first statement talks about the player having a winner (possibly referring to a game scenario), and the second statement talks about the objective of the player's movement relating to a specific task or mission in a game or scenario.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They could both apply to different aspects of the same game. One statement describes a winner in the game while the other describes the objective of the game.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing different aspects and can both be true at the same time. One pertains to winning in a game or competition, while the other pertains to a specific task or mission a player must complete in a game context.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They may refer to different scenarios or aspects of a game, with the first stating there’s a winning possibility and the second detailing part of the gameplay or a specific task.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. One speaks about a player winning, while the other talks about the objective of a player's movement, potentially in a game. They could be related, but they do not contradict or oppose each other.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects and do not contradict each other. The first statement refers to the outcome of a game, while the second describes a possible objective within a game. Both could be true in the same context without disagreement.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They refer to different aspects of a game or scenario. Statement 1 refers to a situation where a player is victorious in some manner. Statement 2 refers to the objective or task that a player is trying to accomplish, which doesn't directly conflict with Statement 1. It's possible that achieving the objective might lead to the player winning, making them compatible.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints as they are discussing different aspects. Statement 1 is discussing a potential outcome in a game (a player winning) while Statement 2 is describing a specific objective in a game scenario. These two ideas do not contradict or oppose each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They refer to different aspects: Statement 1 refers to the outcome of a game, while Statement 2 refers to a rule within a certain game.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time. One statement is about winning and the other statement is about the rules of a turn in a game. They do not contradict or exclude each other. It's possible to win a game while also following the rule about not revisiting the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are speaking of different aspects of a game. One refers to a possible outcome (a player being a winner), while the other refers to a rule within the game (not revisiting the same planet on a single turn).</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They discuss two different aspects - statement 1 pertains to the outcome of a game, while statement 2 refers to a rule within the game. They can both exist and be true within the same context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They address different aspects of what may be a game; the first statement deals with a player having a victory, and the second statement talks about a rule of the game.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They discuss two different aspects of a game - winning possibilities and gameplay rules, respectively. There isn't any contradiction between the two.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects of a game. One is about having a winner and the other is about the movement rules within the game.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing different aspects and are not contradictory. Statement 1 is about a player winning and statement 2 is a rule about player movement or activity within a game.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. One statement talks about a player having a winner, presumably in some kind of game. The other statement talks about a rule within that game that a player cannot revisit the same planet on a single turn. These two statements can easily both exist within the same context, so they are not incompatible.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of what may be a game and aren't directly related to each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One statement talks about a player having a winner (possibly in a game) and the other statement describes a rule or condition of movement within the game. They are addressing different aspects and do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. Having a winning player doesn't prevent a player from changing directions multiple times without entering the same cell twice during a single turn, and vice versa.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One statement talks about the player having a winner, while the other outlines rules of the game. They are talking about two different aspects of the game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to a player having won, while the second statement describes a rule or restriction on the player's movements within the game. They address different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of what seems to be a game. The first statement is regarding victory, and the second statement is discussing the rules of the game play.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement talks about a player having a winning chance or advantage and the second statement describes a rule of the game they are playing. These two statements can exist simultaneously without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are referring to different aspects of what could be a game scenario. The first statement talks about a player winning while the second statement explains a rule within the game.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They address different aspects of a game: Statement 1 could be referring to someone winning the game, while Statement 2 describes a particular rule of the game. They can both be true at the same time without any conflict.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. The first statement suggests that there is a player who is a winner and the second statement is about a condition or rule within the game being played. These can exist together without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They talk about two different aspects of what seems to be a game. One is about winning and the other is about the rules of the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is about having a winner within a game while the second statement is about how each player receives different information in a game, which could possibly be about a murder mystery game. They are about different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It is possible for a player to win (Statement 1) and for each player to receive unique information about the murder (Statement 2) in a game scenario. These events do not rule out or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are about different aspects of a game - the outcome in statement 1, and the gameplay process in statement 2.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They discuss different aspects of what seems to be a game. Statement 1 pertains to a player being a winner, while Statement 2 discusses what type of information each player receives. Nothing about these statements conflict with each other.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different subjects: the first statement is about a player winning something, while the second statement seems to imply a game in which players are given unique information about a murder. They can both be true at the same time, so they do not negate each other.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They discuss different aspects of a game. Statement 1 mentions a player being a winner, which implies it's a competitive game. Statement 2 explains that every player gets unique information about a murder, suggesting it's a mystery or detective game. Both statements can exist in the same game context.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement indicates that there is a winner in a game, while the second statement describes a specific aspect of a game (likely a murder mystery game) where each player receives unique information. These points do not conflict.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are talking about different aspects of a game. Statement 1 is referring to a possible outcome of a game, while Statement 2 is describing a specific game mechanic or rule.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first one implies that there is a winner in a game, whereas the second one describes a scenario common in mystery games where players receive unique information about a murder case. These statements can exist in the same context, such as in a murder mystery game where the objective is to solve the murder case, and the player who does so correctly and most efficiently is the winner.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about two different aspects of what could be a game. The first is about winning, and the second is about game mechanism or rules.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first states that a player has a win, while the second explains a process through which a player can potentially achieve a win in a game.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time: a player can have a winner (Statement 1) and win the game by correctly announcing their murder hypothesis (Statement 2).</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash with each other. The first statement simply states that a player has a winner. The second statement explains the method by which a player can win a game.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They both describe a situation where a player wins a game. Statement1 just mentions that a player has won, while statement2 describes one potential method a player could use to win the game.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement indicates that a player has a winner, but it does not provide specifics on how this win is achieved. The second statement explains one possible method of winning a specific type of game. These statements could both be true simultaneously.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They both are discussing ways a player may win or succeed in a game, although the exact game or rules aren't specified. The first clause indicates a game has a winner. The second explicates a specific way a player could win, presumably in this same game.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement implies that a player has won or will win, while the second statement describes a method by which the player can win.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They both describe a scenario in which a player can win. Statement 1 simply states that a player can be a winner, while Statement 2 describes a specific way that a player can win a game.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both exist in the same scenario. Statement 1 indicates that a player's game has a specific end goal (a winner) while statement 2 provides one of the ways a player can win the game—by guessing the correct murder hypothesis. They could refer to the same game and not contradict each other in any way.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both pertain to the context of a game but from different angles; they are not in disagreement about any point.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are about two different topics: winning a game and the requirements for a player to visit a planet in presumably a space-themed game.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur because they are discussing separate topics. One statement talks about a player's success ("a player has a winner") while the other describes a rule within a game ("To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points"). They do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to be about two different topics: one about winning something (possibly a game) and another one regarding the rules or conditions to visit a planet in a game.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of what could potentially be the same game. Statement one talks about a player winning while statement two talks about part of the procedure for visiting a planet in the game. They are not contradictory.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about different topics and do not contradict or negate each other. It's possible for both to be true at the same time.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No, these two statements are not inconsistent. They are addressing two different topics. Statement 1 is about someone winning in a game or sport. Statement 2 is about conditions to visit a planet in a game. They are independent and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about two different aspects. The first one is about a player having a victory or success. The second one is about a condition or process a player must follow to visit a planet, possibly in a game.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing different aspects and can both exist in the same context. Statement 1 is about a player potentially having a winning status or attribute, while statement 2 describes a procedure for a player to visit a planet in a game context. They are not contradictory.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They could both be true in the context of a game where the objective is to visit different planets and a player can win, they just refer to different aspects of the game. One statement pertains to the outcome of the game (a player wins) while the other details a rule or process within the game (entering a planet's atmosphere).</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about two different topics. Statement 1 is about a player winning in some kind of game or competition, while statement 2 is about the rules for visiting a planet in a game or some sort of simulation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are related to different aspects - while statement 1 talks about a player winning, statement 2 discusses the procedure of the game/playing process.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time. One person winning a game does not prevent all players from being informed of a murder's circumstances in a hypothetical scenario.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are speaking about different aspects and could be part of the same story or event, but they do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are about different aspects and can coexist. One is about a player winning and the other is about a process or action that takes place in the game.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different subjects. The first statement talks about a player winning something while the second statement discusses information being shared about a murder mystery.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They refer to two different aspects: Statement 1 refers to one player winning, while Statement 2 refers to a process that may occur during gameplay. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects. The first one is about a player winning, while the second one is about the process or rule of the game.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They refer to two different aspects and can potentially coexist in the same scenario. Statement 1 refers to the outcome of a game, while Statement 2 refers to a procedure or process in another game or perhaps the same game. They do not contradict or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They discuss different aspects of a game or scenario, and can both exist in the same context. The first discusses a win situation, while the second details a reveal process.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. The first statement talks about a player winning, and the second statement is about announcing a correct hypothesis in a game - probably a murder mystery game. These are two different aspects of a game and do not conflict.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is about the outcome of a game, suggesting that a player has won. The second statement describes the technical structure of a gaming application, which does not have any correlation to the outcome of the game.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They address two different aspects: one is about the game outcome (a player winning) and the other is about the structure of the application, which could potentially support the game. Both statements can be true at the same time. It is possible for a player to win in a game that is built on a client/server structure.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is about an outcome of a game whereas the second statement is about the structure and mechanism of the game application.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. One speaks about the outcome of a game play (a player has a winner), while the other refers to the structure of how the game is set up and how each player's perspective is supported (client/server structure of an application). These statements can coexist without conflicting.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects and can both exist in the same context. The first one is talking about a player's victory while the second one is discussing the technical structure of a game application.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about two different aspects. Statement 1 is about a player having a winning moment or position in the game. Statement 2 is about the technical structure of the game, explaining how it's set up regarding client and server structure. They don't contradict or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different aspects. Statement 1 is about the result of a game, indicating that a player has won. Statement 2 discusses the technical structure of a software application related to the game.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are about different aspects; Statement 1 is about the outcome of a game, while Statement 2 is about the technical structure of a game application.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are discussing different aspects of a game. Statement 1 is about the result of the game (a player becoming the winner), and statement 2 is about the structure of the application used to play the game (a client/server structure). They do not conflict or contradict each other.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about different aspects and can coexist without contradiction. The first one refers to a player's victory in a game while the second one focuses on the technical aspect of an application's structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is about a player emerging as a winner in a game. The second statement describes the strategy required to play a specific game, which could potentially lead to becoming the winner.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time. A player can win a game while the game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario. Mutually exclusive events cannot occur at the same time. In this case, they can.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing different aspects of a game - the first statement highlights that a game has a winning player, the second describes some of the strategies involved in the game.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement suggests that there is a winner in the game. The second statement is explaining the strategy to win the game. Nothing in the statements clash or contradict each other.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game - one is talking about the potential outcome (a player winning), and the other is describing the strategy involved in playing the game.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement talks about a player winning a game, whereas the second statement describes the strategy of the game itself. Both can occur simultaneously. One can win a game that involves strategies like asking questions, selecting destinations, and deducing scenarios.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. One statement talks about a player being successful, while the other discusses strategy of a game.</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a presumably hypothetical game; Statement 1 is discussing the outcome (a player winning) and Statement 2 is discussing the gameplay mechanics.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can coexist as they discuss different aspects of the same scenario - a game. The first statement refers to the outcome of the game, while the second outlines the strategies involved in playing.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a game: Statement 1 talks about a player's win and Statement 2 explains a game's strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to a player having won in a game, while the second statement describes the objective of a class project. They can both coexist without creating a contradiction as they speak about different subjects.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both be true at the same time - a player of "Galaxy Sleuth" could win the game, for example. Mutually exclusive means that if one statement is true, the other must be false; this is not the case here.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing different aspects: one is about a player and their success whereas the second one is explaining the objective of a class project.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement could simply imply that there's a winning player in the game, while the second statement describes the nature and name of the game. The class project can possibly involve creating a game in which players can win, which wouldn't contradict the first statement.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different subjects and concepts. Statement 1 makes a declaration about a player in an unspecified game, while Statement 2 is explaining the objective of a class project to implement a specific type of game.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about two different things and can coexist. The first statement refers to a player who has won something, possibly in a game. The second statement is about a class project to implement a specific type of internet-based game. These two scenarios could potentially be related, but as they stand, they are not contradictory.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different topics: one is about a player having a winner and the other is about the goal of a class project to implement an online game. There is no direct contradiction or opposition between these two ideas.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They discuss two different subjects: the first one refers to a competition, the second one describes a class project. There's no conflict or disagreement between them.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist together without conflict. They describe two different aspects - one talks about a player having a winner which could imply that there's a competitive aspect within the game, while the second statement details the objective or project, which is to implement a particular type of online game.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different subjects. The first is a general statement about a player having a winner, and the second is a specific goal of a class project to create a certain type of game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It is possible for a player to win (Statement 1) and for players to deduce the murderer and circumstances of a murder (Statement 2) in the same game.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement suggests that a player has won something, while the second statement describes a way in which players might progress or win in a murder mystery game. They are about different aspects of gameplay and aren't contradictory.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first one suggests a player has a victory while the second one explains one of the ways a player might achieve victory in a mystery or detective game.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game: one about a possible winner and the other about a method of gameplay.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can both exist in the context of a game. Statement 1 suggests there is a victory condition, and Statement 2 explains one way that victory might be achieved in a game based on deduction and problem solving.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They can coexist because the first mentions that a player can achieve victory, and the second describes one possible mechanism through which a player could win a game.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are talking about different aspects of a game. Statement 1 refers to a player being a winner, and statement 2 describes a process through which players could potentially win in a clue-based game.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both exist in the context of a game. The first statement asserts that a player has won the game while the second statement explains how the game is played or won.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about different aspects of a game, with the first statement referring to a player winning the game, while the second statement describes a possible method for a player to win the game, presumably a murder mystery game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One pertains to a player winning, while the other details a certain action a player may take within a game. There is no inherent contradiction between them.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's possible for a player to both have a winner and visit a planet by making legal moves on the board as per the rules of the game. These two scenarios can occur simultaneously and do not contradict or exclude each other.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They appear to be discussing different aspects of a game, one referring to winning and the other to a specific game mechanic.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of what could potentially be the same game. Statement 1 is about the outcome of the game and statement 2 is describing a possible mechanic or action within that game. These two statements could plausibly exist together without contradiction.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing completely different aspects - one is about a player winning and the other is about a movement or action taken by a player in a game. Negation generally means a statement that disproves or contradicts another. These two statements can both be true at the same time and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are discussing two different aspects of a game: winning and move mechanics. They can both exist in the same game without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different aspects of what seems to be a game. One is discussing a win, while the other is about the gameplay process.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are about different aspects of what could be a game; one statement is about winning, the other is about gameplay or a particular rule.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are about different aspects of a possible game and do not contradict each other. One refers to a player potentially winning the game, while the other explains a method of game-play involving moving across a board and visiting a planet. They could easily both be aspects of the same game.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are both discussing different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are discussing different aspects of a game: winning and movement abilities.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It is possible for both to occur at the same time. A player can have a win while also being able to enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are addressing two different aspects: one is talking about a player having a winner, and the other is discussing the player's ability to enter the planet's atmosphere in a different number of moves. They can both be true simultaneously without contradiction.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are talking about different aspects. Statement 1 is about the outcome of a game and statement 2 is about gameplay strategy or methods.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about different scenarios altogether, hence, they cannot be considered as opposites.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can both be true at the same time. One statement refers to a player achieving victory, while the other refers to a player's actions in a game that presumably includes space and planetary exploration. They discuss two different aspects of a game and do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about two completely different subjects.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing different aspects and can both be true at the same time. The first statement is referring to a player having a winning status or outcome, while the second statement is referring to the player's ability to perform a certain action in a game. These two statements can exist simultaneously without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They refer to different aspects and could both be true in a game scenario. For instance, in a space-themed game, a player could have a winning streak or record (Statement 1) and also have the ability to enter the planet's atmosphere in a varying number of moves (Statement 2).</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different topics: winning a game and the moves a player can make in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about two different subjects.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. Mutually exclusive events are those that cannot happen at the same time. In this case, a player can win (Statement 1) and all players can be informed that a hypothesis cannot be denied (Statement 2) at the same time.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They address two different topics.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are talking about different aspects - Statement 1 is referring to the outcome of a game or contest, while Statement 2 is about a process or rule within a hypothetical situation. They can both be true at the same time without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They address different aspects of a situation - one about a player winning and the other regarding the communication of information. They can both be true or false independently of each other.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are addressing two different aspects. Statement 1 is about the outcome of a game or contest. Statement 2 is about the communication of information, presumably within the context of a game or a contest. They can both be true without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different aspects of a game or experiment and do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They represent two different ideas or situations and there is no contradiction or conflict between them. Statement 1 refers to someone being successful in a game or competition while statement 2 pertains to a scenario regarding a hypothesis and players being informed about it.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects and can coexist without contradiction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are about different aspects of presumably a game. Statement 1 is about the outcome of a game while Statement 2 refers to a particular action or move in a game.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. These statements can occur simultaneously without contradicting each other. One refers to a player winning, and the other refers to a specific action within the game.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing two different aspects of what could be a game - the first is about a player's status and the second is about a specific game action or rule.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement indicates that a player has won something, while the second statement is about a particular action/situation in a game involving movements or turns of some sort. They are about different aspects and aren't contradictory.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about completely different subjects.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They convey different pieces of information. Statement 1 is about a player in a game achieving a win. Statement 2 explains a specific rule or condition in a game which requires the player to spend a single move to enter the atmosphere from a neighboring cell. They could both exist in the context of a game, and neither contradicts the other.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects and can both be true without contradicting each other. One talks about a player winning, while the other talks about the player's cost of a move.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are addressing different aspects - one is about a player achieving victory and the other refers to a game rule or condition.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are discussing two different aspects of what could be a game. The first statement is about a player's achievement (having a winner), while the second statement refers to a specific action or rule within the game (cost of a move from one cell to another). They can exist in the same context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They do not address the same subject or topic in a manner that could lead to a disagreement or contradiction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are addressing different aspects of a situation; the first refers to a game scenario, while the second speaks about a process of communication related to hypothesis disproval.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously without contradicting each other. They relate to different aspects - one about winning a game and the other about disproving a hypothesis and the communication of that information.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They discuss different aspects of what could be a game situation. The first talks about a player having a winner, possibly referring to a specific round or part of the game. The second talks about a player disproving a hypothesis and that information being shared only with that player, possibly referring to rules or mechanisms within the game.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement talks about a player winning, whilst the second statement explains a particular rule or guideline regarding information sharing. They involve different aspects of a game (winning and information sharing) and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are referring to different circumstances and are not opposites of one another.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They refer to different aspects of a game or a situation and can independently exist without contradicting each other. Statement1 talks about a player having a winning status, while Statement2 discusses communication protocol about disproving a hypothesis.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of a situation, one referring to someone coming out victorious, and the other referring to the sharing of specific information.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing different aspects and can exist simultaneously without contradicting each other. The first statement discusses winning in a game and the second statement discuss about information sharing system in a hypothetical scenario.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. They are talking about different things. Statement 1 is describing a player having a winner, possibly in a game or contest. Statement 2 is talking about the communication of information about disproving a hypothesis within a game or other scenarios. However, they can coexist in a larger context (e.g. a complicated game or contest involving hypothesis and disproving).</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are simply saying two different things which do not contradict or oppose each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement speaks to the outcome of the game (a player being the winner), while the second statement describes the platform or medium of the game (being Internet-based). These two aspects of the game can both be true at the same time.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. A player can have a win on a game that is Internet-based where players can play from remote locations. The outcome of the game (i.e. a player winning) is not impacted by the game being Internet-based.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One statement discusses a player having a winner, presumably in a game, and the second statement describes how the game is played. There's no contradiction or conflict between them.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement suggests that there is a player who has won something, possibly a game. The second statement just describes the nature of the game, which is internet-based and allows remote play. Both could be true at the same time.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing two different aspects - one is indicating that a player has won a game, and the other is describing the nature of the game being played.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>No, these two statements are not inconsistent. The first statement suggests that a player has won a game, while the second statement describes the nature of the game being played. These can both be true simultaneously and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects of the game - one is speaking about a player having a winner and the other is explaining the nature of the game being internet-based and playable from remote sites.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are talking about two different aspects. Statement 1 is about the possibility of a player winning a game while Statement 2 is describing the nature of the game being played.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist together without contradiction. A player in an internet-based game can certainly be a winner.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects of a game - the first about a winner and the second about the platform of the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are speaking about different aspects of a game; one mentioning a successful player, the other explaining part of the gameplay.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. A player can win a game (Statement 1) and part of the game could involve reaching suspicious locations quickly to investigate them (Statement 2). These two statements can both occur in the same scenario.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They could potentially be about different aspects of the same game.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Both could occur in the same game. The first statement simply means a player is successful. The second statement describes a game mechanism. A player could triumph in a game that requires investigating suspicious locations quickly.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about two different aspects - one is about a player being a winner and the other is about the strategy or gameplay, which involves investigating suspicious locations. They can both exist and be true at the same time without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are referring to different aspects of a game but they do not contradict each other. The first statement talks about a player winning the game, while the second statement describes a feature of the gameplay.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They convey different aspects of a game; Statement 1 is about game's outcome while Statement 2 describes a part of the gameplay.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They discuss different aspects of a game and can coexist without contradiction. Statement 1 talks about a player achieving a win while statement 2 talks about a specific strategy or action within the game.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both be true in the context of a competitive investigation game where the player who investigates the most suspicious locations quickly can win the game. These statements could refer to different aspects of the same game.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are referring to potentially different aspects of a game scenario and do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are regarding different subjects and can both be true at the same time.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They could both happen at the same time within a game context. One participant can lose whilst the murder hypothesis can also be communicated to all players.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to be discussing different aspects or events within a game.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of a situation - one refers to the competitive status of a player, and the other is about the relay of information in a game or scenario.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing two different topics and have no direct contradictions. One is about a player having a loser, while the other is about the communication of a murder hypothesis to all players.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can both exist in the same scenario - for instance, in a murder mystery game where players can lose. Therefore, they're not contradictory.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other as they are about different aspects and can coexist. The first statement refers to the status of a player in a game while the second refers to communication in a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they both pertain to different contexts and do not contradict each other. Statement 1 is about competition or a game, where there is usually a winner and a loser. Statement 2 is about the sharing of a hypothesis, possibly within a game or scenario revolving around a mystery or crime. These two statements can be true at the same time.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They talk about two different things and neither statement contradicts the other. Statement 1 talks about a player in a game having a losing situation, while statement 2 talks about communicating a hypothesis (possibly in a murder mystery game) to all players.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are unrelated to each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are describing two different aspects of a game. The first talks about the outcome for a player and the second describes the role of a server in a game.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They are talking about different aspects of a game - player's performance and the role of a server, respectively. They can both exist in the same context.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is about a player having a competitor they lost to, while the second refers to a server's role in coordinating a game. They are discussing different aspects of gaming.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to a player having a losing record or status. The second statement describes the role of a server in managing and coordinating online multi-player games. They are discussing different aspects of games.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing two different aspects of a game. One is talking about a player's status in a game, while the other is discussing the role of a server in a game.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about different aspects of a game. The first statement is about the result of a game, indicating that a player has lost. The second statement is about the role of the server in coordinating and managing the game. Neither statement contradicts the other.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about two different aspects of a game - one is about the outcome for a player and the other is about the role of the server in the game.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of game play. Statement 1 discusses the outcome for a player within a game, while Statement 2 refers to the technical aspect of how a game is managed or controlled.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first is talking about the outcome of a game for a player while the second is explaining the role of a server in providing a platform for the game play. They address different aspects of a game environment and therefore do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of a game - player's position and the role of a server.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They seem to be talking about two different aspects of a game - one about a player's status and the other about the game's design or mechanics.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They could both occur in the context of a game. They do not contradict or exclude each other.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They appear to be discussing different aspects of a game; statement 1 refers to player interaction, while statement 2 discusses visual elements of the game's interface.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of a game - one is about a player's standing in the game, and the other is about the game's visual elements. These two concepts do not inherently contradict each other.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are unrelated concepts. One refers to a player having a loss in a game, while the other describes a graphical representation in a game process.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent because they are not related to each other and do not conflict with each other. The first statement is about a player losing and the second statement is about a specific feature of a game. The two statements could potentially be related if they were both talking about the same game, but without additional context, they do not contradict or negate each other.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects and can both be true at the same time. The first statement mentions about a player having a loser and the second one is about a graphical depiction in a game. These two facts can co-exist without contradiction.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are simply about two different subjects and are independent of each other. The first statement refers to a player in a game and their loss, while the second statement describes how certain features are visualized within the game. They do not contradict or marginalize each other in any way.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects and do not contradict or oppose each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>A legal move consists of a player moving their token, the number of moves determined by the spinner, either horizontally or vertically, but not diagonally.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One statement refers to the competitiveness of the game indicating that there is a losing player, and the second describes the rules of gameplay. These statements provide different types of information and do not conflict.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They address two different aspects of some unspecified game. The first statement discusses whether a player has lost or not, while the second prescribes the rules of movement within the game. Both can exist and occur at the same time within this game context.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They address two different aspects: Statement 1 refers to the possibility of defeat or loss for a player, while statement 2 describes the rules of a certain game.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of a game - one is about the results (winners/losers), while the other describes the rules of the game play. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about two different topics: the first one discusses win/lose conditions, while the second one defines the rules of movement in a game. Neither counters or disputes the information provided by the other.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No, these two statements are not inconsistent. They describe different rules or characteristics in a game. Statement 1 talks about a player having a loser, which could mean the game has ended with this player not winning. Statement 2 describes the motion of a token in that game. There are no contradictions between these two statements.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. One speaks about the outcome of a game for a player while the other explains a rule or action within the game. They are addressing different aspects of the game and are not contradictory.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They talk about different aspects; the first one refers to a player having an opponent or competitor, while the second one refers to the rules of a particular game. Both could be true in the same game scenario.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They refer to two different aspects of a hypothetical game - one deals with the outcome (that there is a losing player) and the other defines one of the game's rules (how a token can be moved). They do not contradict each other in any way.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of what seems to be a game. One is talking about the potential outcome for a player and the other is describing a rule of the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They seem to refer to different aspects of a game but they do not present conflicting information.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They could both occur in the context of a game such as Clue or some other form of a mystery game. These types of games often involve figuring out a "murder circumstance and perpetrator," and they also have players who end up "losing" by incorrectly guessing the scenario or not solving the puzzle in time.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are talking about two different aspects of a game, one concerning a player's status and the other detailing the game process.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They seem to be talking about different aspects of a game or activity. Statement 1 simply states that a player has a loser, while Statement 2 is regarding the process of the game or activity. There is no contradiction or opposition between them.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different topics and are not related in a way that one statement would invalidate or negate the other. The first statement refers to a player (presumably in a game or sports context) having a loss or opponent. The second statement refers to the process of forming a hypothesis in a murder investigation game.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can coexist in a given context or narrative, perhaps referring to a game such as Cluedo where players are trying to solve a murder and someone might be losing at that particular moment. However, they are not directly related to each other.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They discuss different topics: one is about competition between players, the other is about the process of a murder-mystery game.</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing different subjects. The first statement talks about a player having a loser, potentially in a game or competition. The second statement discusses a murder-mystery game or scenario where the players use evidence to disprove a hypothesis. They are not contradicting each other.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They could potentially refer to a game where players have to solve a murder mystery. One player could be designated a "loser" for reasons such as guessing the murderer incorrectly or not presenting evidence properly. Meanwhile, the second statement could describe the general process of the game. However, without further context it is hard to definitively say.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different scenarios- one is potentially referring to a game scenario and the other to a mystery or investigative scenario. They are not related nor contradicting each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Players may also travel through a few strategically placed wormholes.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are unrelated and concern different aspects of what could be a game.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time within the context of a game. One player can lose while players also have the ability to travel through wormholes.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing two separate aspects of a game, presumably; ones relate to competition and outcome, the other to modes of travel or game mechanics.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They could both be true in a game scenario, but they don't contradict or conflict with each other. Statement 1 is about the player's performance or status in the game, while Statement 2 is about a feature of the game itself.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are not related or opposite in meaning.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are not related and thus do not contradict or conflict with each other. One statement is about the outcome of a game and the other is about possible game mechanics or features.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are about different subjects and do not contradict each other in any way. Statement 1 is about competition outcomes and Statement 2 is about methods of transportation in a game.</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a potential game and provide no contrasting information.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They discuss two separate aspects (the outcome of a game and mode of movement within a game, potentially) and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints as they discuss completely different topics. The first statement discusses a competition or game while the second discusses a mechanic within certain games.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to the outcome of a game while the second statement refers to the rules of a game. They concern different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. One refers to a player having a possible loss, while the other discusses the rules of movement within a game. They can both happen at the same time without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing different aspects of a game - the first is about the potential outcome for a player, and the second is about the gameplay rules.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They can coexist in the same game rules since they discuss different aspects of the game; one talks about the possibility of losing, and the other talks about the movement restrictions within the game.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing two different aspects of a game - one is talking about a player having a defeat, and the other is discussing a specific rule or restriction of the game.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are discussing two different aspects of likely the same game: a possible outcome (a player losing) and a rule within the game (not moving into a cell occupied by another player's token).</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of a game - one is about the potential outcome for a player (having a loser), while the other pertains to a rule within the game's play (not moving into occupied cells).</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are about different aspects of a game and can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are talking about two different aspects of a game. The first statement refers to the outcome of a game or match, suggesting competition between players. The second statement refers to a rule of the game, regarding movement and positioning of tokens. It is possible for both statements to be true in a game.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a game, one is about the possible outcome (having a loser) and the other is concerning the specific rule of the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a player having a loser, which suggests some kind of competition or game. The second statement talks about players traveling through the universe and sharing information, which could be part of the same game or a different context altogether. They address different aspects and neither negates the other.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement discusses a competitive aspect of a game or scenario, while the second statement describes something that is allowed within the game or scenario. They refer to different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of a game. Statement 1 is about the competition amongst players and statement 2 is about players interacting and gathering information from each other.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game or situation and aren't directly related in a way that would cause them to contradict or negate each other.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can exist together without contradicting each other. The first statement talks about a player having a loser which may refer to a game or competition. The second statement talks about the players' capabilities to question each other about information while traveling through the universe. They are not related but they are not inconsistent either.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects or concepts regarding players - one discusses the concept of a player having a competitor or rival, and the other discusses the act of players gathering information from each other during their journey.</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>No, these two statements are not in disagreement as they talk about different aspects and don't hold opposing views. The first statement is presenting an outcome possibility of a game or competition while the second statement is describing a scenario or feature of a certain game, possibly suggesting a cooperative gaming environment.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist in the same context without contradicting each other. A player may have a loser, and players may also ask questions about each other's information as they navigate a specified universe. However, the relationship between the two statements is not directly clear and are likely part of a larger context.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of a game or event without opposing each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a player having a loser, which can occur in any game. The second statement simply describes a type of game, it doesn't state anything about the game not having losers.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. A player having a loser doesn't prevent the game from being an intergalactic murder mystery and vice versa.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement talks about a player having a loser, which could fit in any game context. The second statement describes a specific game scenario, but it doesn't contradict or clash with the first statement. It is possible for a player in this game to lose.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to a possible outcome or scenario in the game. A player in the game can lose, potentially based on their moves or decisions made in the gameplay. The second statement describes the overall nature and rules of the game but does not contradict the possibility of a player losing.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects and can both be true at the same time. The first statement talks about a player having a loser which likely suggests a competitive aspect while the second statement is more of a description of the game itself.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement could refer to the player having an opponent (loser), and the second statement describes the mechanic and structure of the game they are playing. However, the two statements don't provide enough information to build a clear connection or context between each other.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement is about a player having a rival or opponent, while the second statement describes the nature of a particular game. They are about different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement suggests that there is competition involved (a player has a loser), but it doesn't conflict with the description of the game in the second statement. They could be discussing different aspects of the same game.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement indicates there's at least one player in the game who isn't winning or won't win. The second statement describes the nature of the game. These two statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects and could potentially be related, but there's no opposition or contradiction between them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about two different scenarios. The first mentions the existence of a player with a loser. The second statement talks about a situation where other players were informed that a hypothesis was refuted and they need evidence of this. They can exist simultaneously without conflict.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time within the same situation or context. One statement refers to a player having a "loser" (presumably in a game), while the other refers to other players being informed about a refuted hypothesis. These are not opposing or excluding situations.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They might pertain to different aspects or scenarios within a game-like context, but they do not present opposing or contradictory information.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They could feasibly exist together in the same scenario. The first statement refers to a player having a disadvantage or losing, while the second statement refers to other players being informed that a hypothesis was refuted, indicating they're participating in some sort of game or activity that involves hypotheses testing and presenting evidence.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing two different subjects. The first statement talks about a player having a loss in a game or competition. The second statement discusses a hypothesis being refuted and the need to present evidence to other players. There is no direct contradiction or negation between these two statements.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can both occur in the same scenario, but they are not directly related to each other. The first statement talks about losing in a game, while the second one discusses the refutation of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different subjects. The first is about a competition or game, while the second discuss a process of proving or disproving a hypothesis.</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They discuss different subjects: the first one is about losing in a game, and the second one is about refuting a hypothesis.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist simultaneously, as one is talking about a possible scenario in a game or competition and the other is referring to the process of disproving a hypothesis. They just don't directly relate to each other.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different concepts and not necessarily disagreeing with each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement simply asserts that a player has a loser, while the second one specifies circumstances that could result in a player losing a game.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. A player may have a loser (statement 1), and the rules of the game could also be such that if a player's announced hypothesis is incorrect, the player loses and cannot pose hypotheses or make moves anymore but must continue refuting the hypotheses of other players (statement 2).</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They both concern the rules of a game and possible outcomes for the player. One states a general rule that a player in the game can be defeated (has a lose), while the other explains in specific detail a scenario in which the player can lose the game.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 simply states that a player has a loser. Statement 2 describes what happens when a player makes an incorrect hypothesis. They deal with different scenarios and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about different aspects of a game. The first statement is referring to a player having an opponent who beats them. The second statement is discussing a specific rule or consequence within the game.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No, these two statements are not inconsistent. The first statement simply asserts that a player has a loser, while the second one provides a specific rule condition for the game - a player will lose if their announced hypothesis is incorrect and will no longer be able to participate actively (by posing further hypotheses or making moves), but can still refute others' hypotheses.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement simply implies that a player has a competitor who might be doing better than them in a game; and the second statement describes one of the rules or consequences in a specific game. There's no direct contradiction or opposition between them.</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement is a general statement that a player has a loser, which could be applicable to any game situation. The second statement is a specific condition from a game, where a 'loser' is defined as a player who has announced an incorrect hypothesis. Therefore, both statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can coexist in the same situation, as both involve situations of loss for the player(s) involved. The first statement is more general, simply stating that a player has faced a loss. The second one is more specific, describing a particular situation where a player would lose a game following a wrong hypothesis.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement simply says that a player has an opponent who has lost. The second statement defines a victory condition for the game. Both can be true at the same time.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur in the same situation. For example, in a game, a player may have a loser (statement 1), and the first player to accomplish a certain task could win the game (statement 2). These two events do not preclude each other.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are addressing different aspects of a competition - statement one mentions a player having a loser, which implies that this player is the winner. Statement two is stating a rule of the game where the player who achieves something first wins.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement simply implies that there is a player who is losing. The second statement describes a potential rule of the game, indicating the first player achieving a certain goal would win the game. They are describing different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about different aspects of a game - one is about a player losing, and the other about winning conditions.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They could refer to different aspects of a game, with one stating that a player has an opponent who is currently losing, and the second referring to a winning condition within the game. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They can both exist in the rules of a game. A player can have an opponent who is the loser, and the first player to accomplish a particular goal could be the winner of the game.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They refer to different aspects of a game: one refers to the losing player, and the other refers to winning conditions.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both exist in the same context. The first statement suggests there is a competitive element where someone loses. The second statement indicates a specific goal or task after which a player is declared a winner. It does not contradict the first statement.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to the outcome of a competition or game while the second one details a rule or strategy within a specific game scenario. They are discussing different aspects and neither negates nor contradicts the information in the other.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No, these two statements are not mutually exclusive. They can both be true at the same time - for instance, the player could be losing the game (Statement 1), but still have the option to use a wormhole (Statement 2). The two events do not prevent each other from occurring.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One statement refers to a player having a competitor or opponent (a "loser"), while the other statement refers to a possible action a player may take during a game. They refer to different aspects of game play and are not necessarily contradictory.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement discusses the fact that a player has lost or has an opponent who is losing, and the second statement describes a possible action a player can take in a game. They are discussing different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about two different aspects and can coexist in the same context. The first statement talks about a player having a loser, possibly referring to a game scenario. The second statement deals with a specific rule or movement situation in the game. They do not contradict each other in any way.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about completely different subjects. The first statement speaks about a player losing, while the second statement discusses the decision-making process during a game. These statements could potentially be part of the same game's rules, but they do not contradict or oppose each other.</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are referring to different aspects of what might be the rules of a game. They can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist in the same context or game, as one refers to a player losing and the other refers to movements or actions available to a player within the game. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects of what seems to be a game; one is referring to a player's status or result in the game and the other is explaining a specific rule or move within the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement implies that the player has lost a game, but it doesn't specify how. The second statement provides one specific way the player could lose a game - by drawing an incorrect conclusion - but it doesn't exclude the possibility of the player losing in other ways.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time, thus they are not mutually exclusive. A player can have a loser and also lose the game if they draw an incorrect conclusion.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement suggests a player losing to another, while the second details a condition that could make a player lose the game. They do not provide contradicting information.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They can both exist in the same scenario. The first statement suggests that there is a player who is defeated or outperformed by another player. The second statement sets a rule or condition for loss in a game, indicating that if a player makes a wrong conclusion, then they lose the game. They can be related if the player who draws the incorrect conclusion is the "loser" referred to in the first statement.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement suggests that a player is being defeated by another player or situation, while the second statement outlines a condition that could cause a player to lose a game. They are related but do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. Statement 1 suggests that there is a player who has lost a game. Statement 2 presents a condition where a player could lose a game - by drawing an incorrect conclusion. Both statements revolve around the possibility of a player losing a game; they do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They both suggest possibilities of a player losing in a game.</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They address different aspects of a game - one mentions a player has a loser while the other describes a condition that could lead a player to lose.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement suggests that a player has lost a game or contest (i.e., they have a loser), while the second statement outlines a potential rule or condition of the game that determines a player losing. A player could draw an incorrect conclusion, therefore causing them to lose the game. Thus, these two statements can coexist.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to a player having a disadvantage or loss, while the second statement involves sharing information with all players. They pertain to different aspects and do not affect each other's veracity.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. Mutually exclusive means that the occurrence of one event or statement excludes the possibility of the occurrence of the other event or statement. These two statements discuss different aspects of a situation and can both happen at the same time.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are about different aspects; one is discussing a player's standing in a game, the other is discussing a shared solution with all players.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are speaking about two different aspects of what could be a game or competition. The first is discussing a player having a competitor who didn't win, while the second is discussing the communication of a solution to all participants. They do not contradict or conflict with one another.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are speaking about different aspects and are not necessarily contradictory.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about two different things – one is about the outcome for a player in a game or competition, and the other is about the distribution of a solution among players.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They discuss different aspects and can both be true at the same time. One discusses a relationship between players in a game, possibly competitive, the other discusses a mechanism of sharing information or solutions.</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects and can both exist in the same context. One is about the outcome for a player in a game (competition, loss, win) and the other is about a process of sharing information.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They discuss different aspects of what could be a game or competition scenario. Statement 1 refers to a player having an opponent who loses, while Statement 2 refers to everyone in the game receiving the solution to something - perhaps a problem or challenge within the game. These statements could very well exist in the same scenario. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about two different contexts - one is about a player having a competitor or opponent, and the second is about all players receiving a solution. They do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One statement speaks about a player having a loser perhaps in a game, while the other talks about the objective of a particular game. They are about separate aspects and do not have an opposing relationship.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist together. A game can have a loser and yet its objective may be to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement speaks about a possible outcome or scenario in a game while the second one explains the goal of the game. They're talking about different aspects so they don't conflict.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. One statement is about the possible outcome for a player (having a loser), while the other statement describes the objective of the game. There is no inherent contradiction or conflict between these two statements.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about two different aspects. The first statement is about a player having a loser, while the second statement is about the objective of a game.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are just not directly related. One statement refers to a certain player having a loser, which could mean a competitor who lost in a particular game. The other statement describes the game's objective, which is gathering clues throughout the universe. Both can exist in the same context but don't necessarily have to correlate.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are about different aspects and can both be true at the same time. One is about the possible outcome for a player, the other describes the objective of a game.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement refers to a potential outcome for a player, while the second statement refers to the game's objective. They refer to different aspects of gameplay and could potentially be referring to the same game.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They refer to different aspects and could be part of the same game - one statement refers to the possible outcome for a player in the game, while the other statement explains the objective of the game. However, these statements do not necessarily have to be related to the same context or game.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects - one is about a player having a loser, and the other is about the objective of a specific game. They don't contradict or oppose each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement implies a competitive situation where one player has another player who has lost. The second statement discuses a game mechanic which is based on luck. They are about different aspects and do not conflict or contradict with each other.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist simultaneously. The first statement refers to a player being in a losing state, not necessarily related to luck. The second statement refers to a game element being primarily dictated by luck, specifies the situation of a spinning wheel determining speed to reach a destination. Both can be true in a game at the same time, making the player a loser due to chance, not skill.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They possibly could be talking about different aspects of the same game, but there's no inherent conflict between them.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement speaks about a player having a losing streak or an opponent who is doing better. The second statement is discussing the aspect of a game (presumably some sort of board game or game of chance) in which the outcome is primarily dictated by luck. These two concepts can exist together without contradiction. It's possible for a player to have a "loser" or losing streak because the elements of the game they are playing are dictated primarily by luck.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game: one refers to the outcome (win/lose) while the other is talking about a game mechanic (luck/skill).</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are not mutually exclusive and can apply to the same scenario. One statement notes that a player has a loser, which can occur in various forms of gameplay. The second statement discusses an element of a game dictated by luck and the spin of a wheel, which can also be part of various games. The two statements could conceivably refer to the same game, or different games entirely.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects and can both exist in the same situation. One is referring to a player potentially losing in a game, the other is describing how an element of a game is based on luck.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different subjects. The first statement is making a general point about a player in a game having a loser. The second statement is discussing the role of luck in a certain game where a spinning wheel determines the pace of the gameplay. These two statements can exist in the same context without contradicting each other. They might even be part of the same story; perhaps, in this particular game, luck heavily influences whether a player wins or loses.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist together. The first statement indicates there is a loser in a game, and the second statement explains a game mechanic that could potentially be the reason for a player losing. It suggests a game of chance, in which luck plays a major part in outcomes.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects and can both exist simultaneously without contradiction. The first one speaks about competition (possibly in a game), and the second statement describes a potential factor (luck) in that game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are discussing two different topics - one is related to a game or competition, and the other to a physical location or sci-fi context.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time and do not impact each other. The first statement is related to a player's status in a game, while the second refers to their location. Therefore, they are not related and do not exclude each other.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing different topics: one is about a player's performance or ranking, and the other is about the player's location.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No, these two statements are not at odds with each other. They are unrelated and refer to different topics: the first referring to competition (possibly in a game or sport), and the second referring to a scenario involving space travel or a similar context.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing two completely different topics: one is about a player having a loss in a game or competition, the other is about a player entering a planet's atmosphere. There is no contradiction or negation between these two statements.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are unrelated and can both exist without contradicting each other. One statement talks about a player's performance (presumably in some kind of game or sport), while the other statement pertains to the location of the player (in a fictional or astronomical context). They do not address the same subject matter in a way that could render them inconsistent.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other as they are discussing different subjects. The first statement is about a competition or game situation while the second statement is about space travel or exploration.</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>No, these two statements are not in disagreement as they are talking about completely different subjects and do not contradict each other. The first statement is about a player and their loss, possibly in a game or sports context. The second statement talks about the location of a player, possibly in a science fiction or spatial context.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are actually unrelated because one is talking about a gaming or competition context and the other is discussing a spatial context, specifically on entering a planet's atmosphere. They do not contradict or negate each other at all.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss completely different subjects and are not related at all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One statement discusses a competitive aspect (having a loser), while the other statement addresses a specific mission or goal, both of which can be aspects of game play.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously without contradiction. One statement discusses the player's status (being a loser), while the other discusses the player's activities or objectives - in this case, an investigation of specific planets.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to be about different aspects of a game or scenario: the competitive element and the exploratory or investigative element.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement speaks to a competitive aspect, possibly of a game. The second statement discusses an objective or goal, likely within the same game. The two do not conflict or contradict each other.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing completely different subjects. The first statement is about a player having a loser, presumably in a game or competition. The second statement is about a player's objective in a game or exploration involving movement throughout the universe and investigating planets for a murder site. They do not contradict or negate each other.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>No, the statements are not inconsistent because they refer to different topics. The first statement talks about a player involved in some type of competitive game while the second statement explains the objective of a player in a science fiction, exploration, or mystery-solving game. The two statements could be part of the same context but aren't conflicting.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects: one is about a possible competition situation while the other is about a mission or objective.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>No, these two statements are not in disagreement. They are discussing two different topics and do not contradict each other. The first statement addresses having a loser in a game, while the second statement discusses an objective in a specific game setting, which involves investigating planets.</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are simply addressing different aspects. Statement 1 discusses the fact that a player has a loser, which could apply to any type of game or competition. Statement 2 discusses the specific objective of a player in a game or scenario, which is to investigate specific planets. There's no direct contradiction between the two statements, they can coexist.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about different topics and they do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are addressing different aspects of a game; statement 1 seems to be referring to a player's defeat or ranking, and statement 2 appears to be explaining a rule of game play. They could exist together in the same game without conflict.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist in the same scenario - a player could have a loss and also not re-visit the same planet on a single turn. The two statements refer to different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They appear to be referring to different aspects of what seems to be a game; one is about the outcome (a player having a loser) and the other is about a rule of the game (not revisiting the same planet on a single turn).</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are talking about different aspects; the first statement is about the player's performance (probably in a game), whereas the second statement is a rule or restriction within the game. Thus, these two statements can both be true and valid at the same time, and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are speaking on two different subjects. One is about a player having a loser and the other is about the possible actions of a player in possibly a game scenario.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>No, these two statements are not inconsistent. They refer to two different aspects and can both be true in the context of a game. One is about the outcome (a player losing) and the other is about a rule of the game (not revisiting the same planet on a single turn).</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They address two different subjects: the first is about a player's performance or outcome while the second is about a game rule or regulation.</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different topics and do not contradict each other. Statement 1 talks about a player having a loser while statement 2 discusses the rules of a game involving visiting planets.</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They discuss two different aspects of a game - one talks about a player's status or ranking (having a loser) and the other discusses a rule or condition of gameplay (not revisiting the same planet on a single turn). They do not contradict or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints as they are speaking about two different subjects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One statement refers to a player having a loser (possibly in a game) while the other statement talks about rules of movement for the player within a game. They are discussing different aspects and do not directly conflict each other.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both be true in certain games, for example in board or video games where a player can lose to another and also cannot enter the same cell twice during a single turn. They address different aspects of the gameplay, one about the outcome (losing or winning) and the other about the rules of movement within the game.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement pertains to the player having a competitor or opponent, while the second statement describes a rule or limitation of the game the player is involved in.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to the player's performance or record whereas the second statement is about the rules of gameplay. The two statements refer to different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement is about a player's status or outcome in a game, while the second statement describes a rule or restriction within a game. They are about different aspects and do not contradict or negate each other.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can be related to different aspects of a game. Statement 1 refers to a player's status or ranking, possibly compared to another player. Statement 2 describes a rule or constraint about the player's movements or actions within the game. They do not contradict or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement is about a player having an opponent or rival, while the second statement describes a rule or condition within the game. They address different aspects and do not contradict.</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are about completely different aspects: one is discussing a potential outcome or status in a game (having a loser), and the other is describing a rule or possible action within a game (changing directions and not entering the same cell twice).</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement refers to a player's competitive status in a game, meaning that they have an opponent who has defeated them. The second statement refers to a rule or condition of how a player can move within the game. These two statements can exist in the same context and thus are not incompatible.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects: the first talks about a player having a rival or opponent, while the second discusses the gameplay rules.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement discusses the competitive status of a player, while the second statement discusses the distribution of information among players in a game scenario. There is no overlapping context that would cause these statements to conflict.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both be true at the same time. For example, in a murder mystery game, a player could potentially lose (Statement 1) and all players could receive unique information about the game's narrative (Statement 2).</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They discuss different aspects of gameplay - one refers to the concept of competition (having a winner and loser) and the other to information distribution within the game.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement implies a competitive situation where a player can have a rival or opponent who loses. The second statement denotes a situation like in a mystery game where each player gets different information about a crime. These situations can coexist without conflict.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They speak about two different aspects. Statement 1 talks about a player having a loser, which suggests competition or a game. Statement 2 discusses players receiving unique information about a murder, which implies an investigation or a detective game. They are not directly contradicting or negating each other.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement refers to a player having a loser, which implies a competitive situation or game. The second statement refers to players receiving unique information regarding a murder, which could be part of a murder mystery game. These two situations could easily occur within the same game context.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different aspects of a game and can coexist without contradiction. One talks about competition within the game, the other about the game's procedure.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement talks about a player having a losing position or counterpart, while the second one concerns the distribution of information related to a murder in a game. The two statements discuss different aspects and can both exist in the same context.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement talks about a player having a potential rival or an opponent they lost to. The second statement refers to a scenario in a murder mystery game where all players receive unique information about the murder. These are two different contexts and aspects of a game and can coexist.</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects of a situation, one about competition or game results and the other about information distribution in a mystery or role-playing scenario. They do not contradict or conflict with each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is stating that a player in a game has been defeated or has lost, whereas the second statement is describing a way a player can win a specific game. They are discussing different aspects of game play.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. A player can win the game using their correct murder hypothesis, which implies they have at least one loser as opposition. Therefore, both statements can occur simultaneously.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement relates to the concept that in any game, there is often a loser. The second statement outlines a specific method of winning a particular game. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to a player having a loss, which is a result of a game but does not specify the mechanics or conditions of the game. The second statement explains one of the ways a player can win in a specific game, which could imply another player losing if the game is competitive. Both are possible within the same game context.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They discuss different aspects of a player's status in a game. One talks about a player having a loss and the other discusses a way a player can win a game.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They pertain to different aspects of a hypothetical game. The first statement implies that in a competition or game, a player has someone they defeated or will defeat. On the other hand, the second statement describes a way in which a player can win in a specific game by making a correct murder hypothesis. These two conditions can exist simultaneously in a game.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are referring to different aspects of a game - the first statement refers to the possibility of a player losing, and the second one explains a way a player can win.</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. Statement 1 talks about a player having a loser, which can be interpreted as a situation where one player wins, thus someone else loses. Statement 2 explains how a player can win a game, which implies there might be a loser. Therefore, these two statements can exist in the same scenario and hence, are not in conflict with one another.</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement implies that there is at least one player who loses the game, while the second statement simply describes one way a player could win the game. Both could occur in the same game: one player could win by correctly guessing a murder hypothesis, thereby causing another player to lose.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a game; one is suggesting that there could be a loser in the game, while the second statement is explaining how a player could potentially win the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about different aspects and can both be true at the same time. One is talking about the competitive result of a game and the other one about the rules of a game or activity.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. Mutually exclusive means the two cannot occur at the same time or cannot both be true. These statements could both possibly occur in a scenario or game - a player could have a loser AND must enter a planet's atmosphere at a predefined entry point. The two facts do not contradict each other in any direct way.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They appear to revolve around different scenarios and topics.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects, the first one is about a player's status or performance, while the second one is about the process or rules of a game. They do not contradict or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about different subjects and are not logically connected. One is about a player having a losing situation, while the other is about the process of visiting a planet in a game.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, these statements are not inconsistent. They are discussing two entirely different topics and have no aspects that would make them contradict each other. One is discussing a player having a loss, possibly in a game or sport, while the other is discussing the rules for a player in a game that involves visiting other planets.
+</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about completely different subjects.</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing two different subjects. Statement 1 refers to a player having a competitor who loses, while Statement 2 discusses the procedure for a player to visit a planet in a probable game or simulation scenario. They do not provide contradictory information.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both be true in a game scenario. However, they don't seem directly related. One statement is about the outcome of a game (a player losing), while the other statement is about the rules or mechanics of a game (entering a planet at predefined points).</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about different subjects; one is about players having a loser and the other is about the rules of a game that involves visiting a planet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. One is speaking about possibly a game or competition scenario and the other statement is referring to some sort of game or scenario involving a murder mystery. They are referring to different aspects and can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist or occur at the same time. One player's status as a loser does not prevent all players from being informed about the circumstances of a murder in the context of the game.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to be discussing different aspects of a situation, likely within a game. One talks about a player having a "loser" and the other discusses announcing a hypothesis in a murder situation.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of a game, so they aren't contradictory. One is about a game player and the other one is about the protocol of gameplay, probably in a mystery or detective game.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about different subjects and have no direct opposite meaning. Statement 1 is about a player having a loss, and Statement 2 is about players being informed of certain circumstances. They can both be true at the same time.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They discuss two different aspects, one is related to the outcome of a game or contest (Statement 1) and the other is about the rules or procedures of a game, possibly a murder mystery game (Statement 2). Inconsistency would occur if the two statements contradicted each other, but in this case, they don't. They can exist simultaneously without causing any contradiction.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They discuss different topics - one about a player having a loser and the second one about informing players in some sort of game or situation.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They address two different topics. Statement 1 discusses a player's status in a game, while Statement 2 describes a scenario in a mystery investigation game. There is no conflict between the two statements.</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They address different subjects - the first refers to a player's losing status in a game, and the second refers to a scenario in a mystery game where all players are informed about the details of a hypothetical murder. It's possible for both of these statements to be true in the same context or storyline.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects and could potentially be part of the same situation, but they are not in conflict. One is discussing a concept of winning and losing, the other about information distribution in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a player having a rival or opponent in a game, while the second statement discusses the technical structure of a gaming application. Both can exist simultaneously without contradiction.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They pertain to different topics and neither negates the possibility of the other being true. The first statement refers to a player in a losing position in a game, while the second talks about the structure of a game application. They can both exist at the same time independently.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are talking about two different aspects. Statement 1 is talking about a relationship between players in a game, whereas Statement 2 is discussing a technical aspect of how the game application is structured.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement is relating to competition and the notion of winning and losing within a game. The second statement is detailing a structural aspect of an application, not making any reference to the performance or status of a player within a competition.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects and concepts. Statement1 talks about a player's competitive status while Statement2 is about a technical setup for a game application.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They talk about two different things; Statement1 talks about a player having a losing outcome in a game, while Statement2 is about the structure of an application where each client supports one player's view of the game. They are not related and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects - Statement 1 talks about a player in a game scenario having a competitor, while Statement 2 discusses a technical aspect of how a game application will be structured.</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are about different aspects - statement 1 is about a game situation while statement 2 is about a technical structure of an application.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. The first statement relates to the outcome of a game for a player, while the second statement refers to the structure/design of an application supporting the game. These are separate aspects and do not contradict or negate each other.</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects and could both be true at the same time. The first talks about a player having an opponent whereas the second discusses the structure of a game application.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about different aspects of a game. The first statement is about the result of a game that a player has lost, while the second statement describes the game strategy.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's possible for a player to have a loser (statement 1) and for the game's strategy to be based on asking questions, selecting destinations, and deducing a scenario (statement 2). They refer to different aspects and can both occur in the same context or situation.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. Statement 1 is referring to a player in a game having an opponent or competitor who may emerge as the 'loser'. Statement 2 describes the strategy or tactics involved in playing the game. They refer to different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement refers to a player having a potential opponent or losing a game, while the second details the game's strategy. These two ideas can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They discuss different aspects and could both be true at the same time. The first statement talks about a specific player having a loser, while the second statement describes the strategy of a game. They are not directly related or contradictory.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about different aspects of what seems to be a game. Statement 1 is discussing a player's game performance while statement 2 describes the strategy involved in playing the game.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. One describes a possible outcome for a player while the other explains the strategy behind playing a game.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are about different aspects of a game. The first speaks on competition and the other speaks on strategies of gameplay.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist in the same context. For example, in a detective-themed board game, a player may end up losing (Statement 1), and the strategy could involve asking questions, choosing locations, and deducing scenarios (Statement 2).</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of a game – one talks about a player's status or performance, while the other describes the game's strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about two different things. The first statement talks about the existence of a losing player, while the second statement describes the goal of a class project.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist or occur at the same time without contradicting each other. The first statement describes a scenario in a game, while the second one describes a class project. They refer to completely different situations or contexts.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One is about a player having a loser whereas the other is describing the goal of a class project to implement a specific type of game.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. One statement discusses a player having a loser which could be relating to a competition or game. The other statement is about the purpose of a class project. They address different topics and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They address completely different subjects and neither contradicts the other. Statement 1 discusses a player having a loss or someone who bests them, whereas statement 2 describes a class project to create a specific type of online game.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are just referring to different things. Statement 1 is referring to a competition or game between players wherein some may lose. Statement 2 is describing the goal of a class project to create a specific style of game. These two statements could still be in the same context, like if the "Galaxy Sleuth" game involves multiple players and there are winners and losers.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are about different topics and do not present contradictory information.</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different subjects – the first mentions an unspecified player having a loser, and the second is discussing a class project aiming to create a specific internet-based game. There's no conflict or disagreement between the two statements.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are just focusing on different aspects - one is about a player of a game having a loser (presumably in some game context), another is about a specific project goal related to developing a certain type of game. They aren't related directly but they could potentially be part of the same broader context (i.e., gaming).</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about different topics and do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about different aspects of a game: one is about a player having a loser, possibly in a competitive sense, and the other is about the method players use to reach a conclusion in a game scenario, presumably a murder mystery.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. A player in a game could lose (Statement 1) and still gather clues/deduce information about the circumstances of a murder (Statement 2). These actions/events do not preclude each other.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing different aspects of a game - one about a player in general possibly losing, and the other about how a game is played to solve a crime.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They could both be true in the context of a game, for example, a murder mystery game. Statement 1 implies that there are winners and losers in the game, while statement 2 describes a possible way to win the game.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about two different scenarios. Statement 1 is saying that a player has a loser, while Statement 2 is about players using clues to solve a mystery or crime. They are not directly related or opposite in meaning.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They refer to two different aspects or situations in a game. The first statement implies a competitive situation where one player loses. The second statement appears to describe a mystery or detective game where players must use clues to solve a crime. These two scenarios can exist in the same game or in completely separate games.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other.</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of games. Statement 1 is focusing on the concept of winning and losing, suggesting that there is a player who has been defeated or outperformed. Statement 2 is detailing a possible game mechanism in mystery solving or detective games, explaining how players can use clues and reasoning to identify a murderer. So there is no contradiction between the two statements.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They discuss different aspects of a game. The first statement mentions about a player losing, while the second statement describes the game process in a detective-like game. Therefore, they can coexist in the description of a game.</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of games without presenting opposing views.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Statement 1 refers to a player losing in a game, while statement 2 discusses a specific move or action a player makes in a game. These can both be true in a game scenario.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. A player can lose a game while also visiting a planet by making legal moves on the board. These two situations are not inherently contradictory.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are on different topics; the first is about winning and losing in a competition or game, while the second is about a specific action taken in a game context.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They appear to be discussing different aspects of a game - one about the outcome for a player, and the other about the mechanism of the game itself.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about completely different topics. The first one talks about a player having a loser, which seems to refer to a competitive scenario, while the second one is about a player reaching a certain point on a game board. Therefore, one statement does not contradict or negate the other.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about different aspects of presumably a game. The first one might refer to a player losing a match or game, while the second one describes a part of the game's mechanism or a player's strategy. They can exist together without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of a game - one about the outcome (having a loser) and one about the game's process or mechanics (visiting a planet). They can both exist in the same scenario without contradiction.</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are about different topics and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They address different aspects of presumably a game - one refers to the potential outcome or relationship between players, and the other refers to actions and gameplay. They could easily both exist within the same context.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about different aspects - the first statement is about competition in a game, while the second statement describes a action in a board game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are referring to different aspects of a game or scenario - statement 1 to a player's performance against others, and statement 2 to a measure of a player's navigational efficiency or options.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. A player having a loser does not prevent the player from being able to enter the planet's atmosphere in a different number of moves, and vice versa. They are two unrelated events.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are about two different subjects. One is about competition (a player and his or her rival) and the other is about gameplay mechanics (the number of moves a player can make).</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different aspects of a game. The first is about a player's performance (having a loss), while the second is talking about actions the player can take within the game (entering a planet's atmosphere). They do not contradict or conflict with each other in any way.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No, these two statements do not negate each other. They express completely different ideas. One is about a player having a loser and the other is about the player's ability to enter the planet's atmosphere in a different number of moves. They appear unrelated.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are discussing two different aspects: the first one is about the player's state or performance in a game, and the second one is about possible actions or methods the player can take within a game (presumably a space exploration game). They are not contradictory.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects - one is about competition and losing, and the other is about the movement of a player in a game.</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects - one is about competition or rivalry possibly in a game or sport and the other regards movement or strategy in a game, possibly a video or board game. They do not contradict or conflict each other.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are referring to different aspects and could both be true in a certain context, especially in gaming. One is referring to a player having an adversary or opponent they have lost to (Statement 1) and the other is referring to a player's potential action or strategy in a game (Statement 2).</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing two different aspects - one is about a competition and the other about a movement or action taken by the player.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are discussing two different subjects: one is about a player having a loser and the other is about players being informed under certain conditions.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They discuss different aspects and can both occur at the same time without any contradiction.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are about different aspects and can coexist without contradiction. One discusses a player's status in a game or competition, and the other refers to a hypothesis and the sharing of information.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They pertain to different scenarios - one relating to the result of a player's action, and the other relating to the sharing of information about a hypothesis. They can both apply in the same context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They speak about completely different subjects and scenarios. One is about a player's performance or status in a game, while the other is about sharing information in case a certain hypothesis cannot be denied.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are referring to two different concepts and can coexist without conflict. One is referring to a player's status or ranking in a game or competition, while the other refers to the sharing of information.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different topics; the first is about a player's performance or ranking in a game, while the second is about communication of information regarding a hypothesis.</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different subjects. The first statement talks about a player having a loser (possibly in a game or competition). The second statement is about a hypothesis and how information is disseminated amongst players if it cannot be denied. There's no contradiction or disagreement between the two statements.</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, these statements are not incompatible. They discuss different aspects - Statement 1 is about a competition or game setup, and Statement 2 is referring to a hypothesis and communication in a potential research or game scenario. They do not contradict or negate each other.
+</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They address different aspects and can exist simultaneously without causing a contradiction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to the player's competition or game status, while the second statement is about the player's action or movement in a game. Both could be true in the same context.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They could both apply to a situation in a game, where a player has an opponent (a loser) and also needs to make a move to enter the atmosphere from the adjacent cell. They refer to different aspects of a game and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One statement is about the player having an opponent or someone who defeats them (a loser), while the other statement is about the mechanism of the game or action that the player takes. These two concepts do not inherently conflict.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are addressing different aspects about the player. The first statement is about the player's competitive status, while the second is specifying an action and its cost for the player in a game setting.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about different subjects and neither contradicts the other.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They refer to different aspects (possibly of a game) and do not contradict each other. One refers to a player's outcome or status, and the other refers to a game mechanic or rule.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing two different subjects: one is about winning or losing, while the other one discusses the cost of a particular move in a game.</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are addressing two different topics - one is referring to a player having a competitor or opponent in a game, the other is referring to the mechanics or rules of a game.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. They are discussing two different aspects of what could potentially be a game. The first statement discusses the existence of a competitor who has lost, while the second statement discusses a specific game mechanic. They don't contradict each other.</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints as they are discussing different aspects about a player. The first one is talking about competition or a game and the second one seems to be discussing a specific actions or game mechanics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They can both be true at the same time. The first statement talks about a player losing in a game while the second statement discusses how a player communicates information in a scenario, potentially a game. These two concepts do not have an inherent conflict.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. The first statement refers to a player's status in a game or competition, while the second statement refers to the communication of information within a game or investigation. These are different aspects and could both occur simultaneously.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing different aspects of a game or situation - the first is talking about the outcomes of a game and the second is concerning the communication of information within the game.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are dealing with two different aspects. Statement 1 talks about the existence of a loser in a game/competition, while Statement 2 talks about a situation in a game or some sort of inquiry where a player disproves a hypothesis and that information is only communicated to the one who inquired.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects related to a player. One is about winning/losing a game, the other is about communication of information and does not necessarily affect the player's winning or losing status.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about different things. Statement 1 is about a player having a loser, possibly in a game context, while Statement 2 is discussing communication of information regarding disproving a hypothesis. The two statements do not contradict each other or provide incompatible information.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are about different topics – the first about a game and the other about communication of information.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different aspects and can exist independently without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. The first statement speaks about a player having a loser (possibly in a game) and the second statement is about the mechanism of communication in a hypothetical situation. These two statements discuss different scenarios and can exist independently. They don't contradict each other.</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different subjects and do not offer opposing views on the same topic. The first statement is talking about a player having a loser in a general sense, perhaps referring to a game or competition. The second statement is providing information about a specific situation where a player can disprove a hypothesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement suggests that there's a player who is losing, while the second statement describes how the game is played. They refer to different aspects of the situation.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. A player can have a loser in a game that is Internet-based. The two conditions can exist at the same time and do not negate each other.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. One statement is about the potential outcome for a player in a game, while the other describes the format or platform of the game. These are separate aspects and do not inherently conflict.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement implies that in the game, one player can lose to another. The second statement simply describes the platform or medium for the game, which is the Internet. They are addressing two different aspects of the game.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. One statement discusses the outcome of a game for a player, while the other statement describes the nature of the game being played. They can both be true or false independently of each other.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>No, these two statements are not inconsistent. The first statement implies that there is a player who has lost to another player. The second statement simply describes the medium through which the game is played, which is the internet. These two statements can both be true in the same context.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. One is discussing the concept of a player having an opponent they lose against, while the other is explaining the remote, internet-based nature of the game. There is no contradiction or opposition between these two ideas.</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are about two different aspects. Statement 1 refers to the competitive aspect of the game where there can be a losing player, and Statement 2 explains how the game is played, that is, over the internet. They do not contradict or oppose each other.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They refer to different aspects of the game: the first statement refers to a player's outcome or status in the game, while the second statement refers to the platform or medium of the game. They can both be true at the same time.</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about different aspects and can coexist without contradiction. The first statement talks about the outcome of a competition, while the second statement is about the mode of the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are discussing different aspects of a game - one is referring to competition (losing and winning) and the other is referring to the strategy or method of playing the game.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist or occur at the same time without contradicting each other. One statement is about a player having a loser while the other statement is about a part of the game that involves reaching certain locations for investigation.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They seem to be talking about different aspects of a game – the first one talks about competition within the game, while the second one talks about a potential feature or aspect of gameplay.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They seem to be discussing different aspects of a game; statement 1 is referring to competition (assuming "a player has a loser" means each game has a losing player), and statement 2 is describing part of how the game is played. They could both be true in the same game without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are talking about completely different aspects and can both exist in the same context. One is talking about a player having a loss or setback, while the other is discussing a game mechanism or strategy.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are talking about two different aspects of a game; Statement 1 talks about a player's standing in the game while Statement 2 discusses about the gameplay mechanism itself.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They discuss different aspects of a game - the concept of losing and the strategy of reaching certain locations quickly - and do not present contradictory information.</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are talking about completely different aspects of a game. The first statement is about a player having a rival or opponent, while the second is about a particular strategy or aspect within a game.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They could both be part of a description of a competitive game where players investigate suspicious locations and one player might lose. The first statement is about the outcomes for the participants and the second statement is about the gameplay mechanics. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects and do not offer opposing views on the same issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is simply saying that a clue contains information. The second statement is about how the information is shared if a hypothesis can be disproved by a player. It doesn't contradict the fact that a clue contains information.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's possible for both statements to exists at the same time. Statement 1 can be a fact while Statement 2 can be a rule or procedure in a game involving clues and hypothesis, and does not interfere with Statement 1.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They both relate to information and can be part of the same scenario - the first statement talks about a clue holding information, while the second statement discusses what happens when a player is able to disprove a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement indicates that a clue contains information, while the second one lays out a specific condition about how that information is disclosed if a hypothesis can be disproved. They can exist in the same scenario without conflicting with each other.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement is about the existence of information in a clue, while the second describes a possible situation where only specific players receive certain information. They address different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement simply asserts that a clue contains information. The second statement sets a condition for a specific scenario where the information (probably derived from a clue in some sort of game) is disclosed only to the player who questioned (inquired) a certain hypothesis.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They discuss different aspects of information handling in a presumed game setting. The first statement discusses what a clue contains while the second statement discusses how potentially disproving information is handled within the game.</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement says that a clue carries information. The second one specifies a situation where specific information (disproving a hypothesis) is only communicated to a certain player. They're potentially related, but they don't contradict each other.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement suggests that a clue possesses information. The second statement applies when a player is able to disprove a hypothesis - it then states that the information which disproves the hypothesis is only shared with the player who asked for it. These statements can coexist without contradiction. The information in the clue could effectively be the same information that is communicated to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both discuss the aspect of information in a clue or hypothesis, in different contexts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur or be true at the same time. One statement is about a clue possessing information while the other is about players' ability to ask about information possessed by other players. They are not contradictory or excluding each other in any way.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is simply saying that clues hold information. The second statement is describing an activity or game wherein players are allowed to inquire about what information other players have. They can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement suggests that a clue possesses information. The second statement talks about players asking questions about what information other players have, possibly about a clue or something else in the game. These statements could both occur independently in the same scenario.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They address completely different aspects. The first one talks about a clue having information, while the second discusses the actions of game players asking each other about the information they hold.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are discussing different aspects of information within the context of a game. Statement 1 talks about information being part of a clue, while statement 2 talks about players being able to inquire about the information possessed by their fellow players. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement is about a clue containing information while the second one is about players asking each other for information. They are discussing different topics related to 'information'.</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They discuss different topics - one is about a clue having information while the other talks about players asking each other questions in a game. They may relate if the game involves clues, but they do not contradict or oppose one another.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are just providing information about two separate things - the first one talks about a clue having information and the second one is about the game rules where the players can ask each other for information. They can both exist in the same context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different concepts and do not contradict each other. The first is about a clue carrying information, while the second is about players in a game asking each other for information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time in the context of a murder mystery game, for example. Statement 1 suggests a clue providing information. In Statement 2, the information from the clue could be used to form a hypothesis.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is about a clue containing information. The second statement discusses a scenario where questions create a hypothesis for a murder scenario, which the other players attempt to disprove using their evidence. Both statements can coexist as they talk about different aspects of a potentially similar situation (such as in a detective game scenario).</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 suggests that a clue provides information. Statement 2 describes a process by which questions are used to form a hypothesis in a game, which players are then challenged to disprove using evidence (presumably the clues mentioned in statement 1). They are both addressing different aspects of a possible game or problem-solving process.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about different aspects of problem solving or investigation and can exist simultaneously without contradiction.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can coexist as Statement 1 can refer to information found within a clue in a game or investigation, while Statement 2 refers to a process of forming a hypothesis based on questions during an investigation, possibly using clues, which other players are then tasked with disproving.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They both pertain to the process of investigation or problem-solving, but they address different aspects of that process. The first statement refers to the information a clue can provide, while the second statement describes the formation of a hypothesis based on questions and evidence.</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a game or investigation, where Statement 1 refers to the information a clue provides, while Statement 2 explains a process of forming a hypothesis and disproving it with evidence.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist in the same context, particularly in a mystery or detective game or story. Statement 1 refers to the fact that a clue contains information that can help in the investigation. Statement 2 suggests a method or approach towards solving the mystery, where investigators use questions to form a hypothesis about the murder and the potential perpetrator.</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects of an investigation or mystery game. The first statement is about what a clue contains while the second statement is about forming a hypothesis based on the questions in the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Statement 1 implies that a clue provides information. Statement 2 says that each player receives different information. Neither statement contradicts the other; they can both be true in the same situation.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's possible for both to coexist. A clue could provide information (Statement 1), and each player could receive different information about the murder (Statement 2).</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement talks about a clue containing information. The second statement talks about each player receiving different information. These could be complimentary if the clue mentioned in statement 1 is one of many clues distributed to players mentioned in statement 2.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 suggests that a clue provides information, while Statement 2 suggests that each player is given unique information. It could be implied that each player is given a unique clue or that they interpret the clues differently.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. Statement 1 talks about a clue holding information, while Statement 2 explains how information is distributed among players. They are discussing different contexts and are not contradictory.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They both discuss information but do not contradict each other. Statement 1 suggests that a clue provides information. Statement 2 suggests that each player receives unique information about the murder.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement refers to a clue containing information, while the second statement refers to how players receive different pieces of information in a game scenario. They are about different contexts and can both happen at the same time. It could be that the difference in information players receive takes the form of different clues, tying back to the first statement.</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement is generally stating that a clue has information. The second statement is detailing a scenario in a game where each player receives different information. Both discuss the concept of possessing information, but they do not conflict or contradict each other.</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. Statement 1 indicates that a clue holds information. Statement 2 details how players are each given unique information concerning the murder. These two could coexist in the same situation, where the information received by each player is a clue (containing information) related to the murder.</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both deal with information distribution but in different contexts. The first statement refers to information contained within a clue. The second statement refers to the unique distribution of information among players in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>a question has an information</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement suggests that a question can contain some level of information. The second statement discusses a scenario where players can ask questions to seek information. Both statements acknowledge that questions can be a means or medium of transferring information.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. The first statement refers to the presence of information in a question, while the second one speaks about an action or activity involving questions and information. They can both occur independently or simultaneously without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement speaks about a question having information, whereas the second statement discusses players asking questions for gathering information.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement asserts that a question can carry information. The second statement indicates a scenario where players can ask questions about the information that others hold. Both involve the notion of questions carrying or seeking information.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different topics and do not contradict or oppose one another. The first statement is about a question containing information, while the second statement is about players in a game asking each other about information they might possess.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement indicates that a question can contain information. The second statement reveals that players can inquire about the information that others have. These statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement is about a question containing information, while the second statement is describing a scenario where players can inquire about the information other players have. They are dealing with different contexts and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement suggests that a question contains information, while the second statement implies that a question can be used to obtain information. Both statements agree on the concept that questions are associated with information.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement claims that a question contains information. The second one describes a scenario where players are permitted to ask questions about information that others possess. Both involve questions and information, so they are not contradictory or incompatible.</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. The first statement seems to talk about a question having information in general, while the second statement is more specific to a game scenario where information is obtained through asking questions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>a question has an information</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement simply indicates that a question contains some form of information. The second statement is more specific in its context, suggesting that questions are being used to create a hypothesis in a game or scenario revolving around a murder investigation. They can coexist because questions can both carry information and be used to formulate hypotheses.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's entirely possible for a question to contain information and also form a hypothesis for a murder circumstance and perpetrator. Mutually exclusive statements cannot both be true at the same time, but these can.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is expressing that a question contains some kind of information. The second statement is explaining a specific scenario in which questions are used to formulate a hypothesis in a game setting. They are discussing different aspects of what questions can do or contain, but they do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first states that a question contains information, which it does by nature of asking about a specific subject or circumstance. The second statement provides a specific context for questions being used to form a hypothesis in a game setting, which is a way of demonstrating the 'information' that the questions contain. The two statements can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement makes a general assertion about questions having information. The second statement, however, provides more specific information about a context in which questions are used to form a hypothesis in a game setting. These two statements can actually complement each other.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement implies that a question holds information, while the second statement suggests how questions are used in a certain context (in this instance, a game situation involving murder mystery). The statements are about different aspects of questions.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They both suggest the provision of information or hypothesis through a question.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement is outlining that a question contains information. The second statement is detailing a scenario where questions are used to form a hypothesis for a situation, suggesting that the questions contain information about the murder circumstance and possible perpetrator. Hence, both statements agree that questions carry information.</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement is a general statement about questions having information. The second statement is more specific and refers to a particular context, (presumably a murder mystery game), where questions are used to form a hypothesis about a situation. Each question in that scenario would inherently contain information as suggested in the first statement.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of questions - one is about a general aspect of questions having information, while the other is about a specific use of questions in a game or situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is about the content of a hypothesis, which includes a murder weapon. The second statement is about the action taken with the hypothesis - it is shared with all players. They refer to different aspects of the hypothesis and do not conflict.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. A hypothesis can include a murder weapon and that hypothesis can be communicated to all players. These actions can occur together, so they are not mutually exclusive.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is detailing what the hypothesis involves (a murder weapon) and the second statement is explaining how that information is shared (communicated to all players).</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement is about the content of the hypothesis (that it includes a murder weapon), while the second statement is about who has access to this information (all players). These statements could both be true at the same time.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about two different aspects of a hypothesis. Statement 1 is about the content of the hypothesis (it includes a murder weapon) and Statement 2 is about the sharing of the hypothesis (it's communicated to all players).</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement suggests that a hypothesis possesses information about a murder weapon. The second one indicates that this hypothesis, perhaps detailing the murder weapon, is shared with all the players. They can both co-exist in the same storyline.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are about different aspects of a hypothesis - the first one discusses content of a hypothesis (presence of a murder weapon), while the second one refers to the act of sharing or communicating the hypothesis.</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement refers to the content of a hypothesis (a murder weapon), while the second statement refers to the action of communicating this hypothesis. They are about different aspects of the situation and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement is about the content of a hypothesis - it includes a murder weapon. The second statement is about the action of communicating that hypothesis to a group of people, presumably involved in a game or an investigation. Both can exist together without conflict.</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects of a hypothesis related to a murder, the first one talks about what it contains and the second one is about its communication.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Both statements mention a hypothesis related to a murder, with the latter one further detailing what the murder hypothesis consists of, including a murder weapon, which is mentioned in the first statement as well.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. Statement 1 can be part of statement 2, where the hypothesis includes a murder weapon.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are both about hypotheses related to a game involving a murder mystery.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Both statements are about a hypothesis involving a murder weapon, one is a general statement, the other is specific to a game.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement implies that a hypothesis involves a murder weapon. The second statement broadens the concept and provides additional detail about a game where a player must make a correct murder hypothesis to win, but it does not contradict the first statement.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They both refer to a game, presumably a type of whodunit or mystery game. The first statement discusses a feature of the hypothesising process in the game, while the second explains how a player can win the game. Both involve formulating a hypothesis, and a murder weapon being a component of this hypothesis.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are talking about different things related to 'hypothesis' within a game context. Statement1 talks about what a hypothesis includes (a murder weapon). Statement2 describes a specific gameplay mechanic involving a hypothesis.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement identifies that a hypothesis includes a murder weapon. The second statement expands on this idea by detailing other elements included in the hypothesis - a planet and a perpetrator - and explains how this hypothesis allows a player to win a particular game. So, both statements can coexist without conflict.</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. Both statements accept the notion that a hypothesis can include a murder weapon. The second statement just provides more detail beyond that provided in the first statement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur in the same scenario, such as in a game of Cluedo or a mystery-themed video game.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They could pertain to a game where a hypothesis about a murder weapon is formulated and the solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They could both be referring to a hypothetical situation in a game or investigation, with the first statement referring to a hypothesis about a murder case, and the second one indicating that the solution is shared with all players or participants.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are not directly related or opposite in meaning.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can exist in the same scenario, such as in a murder mystery game where a hypothesis is made about a murder weapon and then the solution is broadcast to all players. They are not contradictory.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of a situation or process, they do not contradict or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different topics and do not contradict or argue against each other.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist in the context of a mystery game where the hypothesis of who the murderer is, including the murder weapon, is shared with all players.</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They seem to be talking about different aspects or stages of a game or investigation and do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement says that a hypothesis includes a murder weapon. The second statement tells us that when the correct hypothesis is announced, all players come to know of the circumstances of the murder. These statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It is possible for a hypothesis to include a murder weapon and for all players to be informed of the circumstances of the murder, so both statements can occur at the same time.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. Both can coexist as they address different aspects of the hypothesis. The first one suggests that a murder weapon is part of the hypothesis while the second statement dictates the protocol after a correct hypothesis is announced.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement simply suggests that a particular hypothesis includes a murder weapon. The second statement says that when the correct hypothesis is announced, all players are made aware of the circumstances around the murder. The circumstances could include the murder weapon, the location, and the identity of the murderer, among other details. Therefore, both statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing different aspects of a murder mystery game. The first statement is referring to a detail within a hypothesis, while the second statement is discussing the procedure after a correct hypothesis is announced.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement suggests that a specific assumption or theory (hypothesis) about a murder includes a weapon, presumably used in the crime. The second statement explains a rule in a game (presumably a murder mystery game) where once the solution (the correct hypothesis) is revealed, all players are informed about the details of the murder. These two statements could align in a situation where players are trying to guess a correct hypothesis, and the hypothesis involves identifying a murder weapon.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement is specific about a murder weapon being part of a hypothesis, while the second statement suggests that all details of the correct hypothesis, presumably including the murder weapon, are revealed to all players. They can both be true in the same context.</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement suggests that a hypothesis about a murder includes a weapon while the second statement indicates that when a correct hypothesis is established, all players are informed about all details, which would conceivably include the murder weapon.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement indicates that a hypothesis includes a murder weapon. The second statement means that when the correct hypothesis (which likely includes the murderer, the murder weapon, and the location, among other factors) is revealed, all players are informed about the circumstances of the murder. These two statements can easily exist together without conflict.</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both pertain to details regarding a hypothesis in a murder investigation or game, but they don't contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first one is about the details of a hypothesis that suggests a specific murder weapon. The second one is about the protocol or avowal for communicating the refutation of a given hypothesis to other players, implying they need to be shown the evidence that contradicts or disproves the hypothesis. There's no inherent contradiction between these two statements.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's possible for both of these events to occur together: a hypothesis can include a murder weapon and other players could also be informed that the hypothesis has been refuted, requiring the piece of evidence that refuted it to be shown.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement tells us about a hypothesis including a murder weapon, and the second statement explains the process that takes place after the hypothesis is refuted.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 simply states that a hypothesis involves a murder weapon. Statement 2 elaborates on an instance where the hypothesis has been refuted and other players in a game, possibly, need to be shown the particular evidence that contradicts the hypothesis. These two statements can exist in the same context without contradiction.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. Statement 1 simply informs that a hypothesis involves a murder weapon. Statement 2 tells us that although other players know the hypothesis was refuted, they still need to be shown the specific piece of evidence that refuted the hypothesis. The two statements can complement each other in a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are referring to two different aspects of a hypothetical situation, possibly in a game or study - the first about the content of a hypothesis, and the second about the process following its refutation.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement talks about a hypothesis involving a murder weapon, while the second statement just mentions a general rule or procedure to follow when a hypothesis is refuted. These statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They connect logically. The first one outlines a hypothesis that involves a murder weapon and the second statement refers to the reaction or consequence of this hypothesis being disproven. It's a sequence of events.</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. The first statement is simply saying that a hypothesis includes a murder weapon. The second statement is saying that in a situation where this hypothesis is refuted, other players need to be shown the evidence that refuted it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Statement 1 is explaining a feature of a hypothesis where it includes a murder weapon, while statement 2 outlines the consequences for a player in a game if their proposed hypothesis is incorrect. These statements are providing different information and do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur or be true at the same time. The first statement is about the content of a hypothesis, and the second one is about the consequences of an incorrect hypothesis in a game. They are related to the same context (possibly a murder mystery board game), but they do not exclude each other.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement is simply explaining what a hypothesis includes (in this case, a murder weapon). The second statement is explaining what happens if a hypothesis made by a player is incorrect. They are providing different information and impose no contradictory claims.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement talks about the content of a hypothesis, while the second describes potential consequences of an incorrect hypothesis. They do not contradict or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are about different aspects of a game: the presence of a murder weapon in a hypothesis and the consequences of making incorrect hypotheses.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement talks about the content of a hypothesis, while the second statement talks about the consequences of an incorrect hypothesis. These two statements can coexist without any contradiction.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement describes a feature of a hypothesis (namely, that it involves a murder weapon), while the second statement describes a rule of a game that involves posing hypotheses. They pertain to different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are talking about different aspects of a game involving hypotheses. Statement 1 addresses the content of a hypothesis (containing a murder weapon), while Statement 2 outlines the rules or consequences of an incorrect hypothesis.</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are focusing on different aspects of what seems to be a game. Statement 1 focuses on the content of a hypothesis in the game (a murder weapon), while Statement 2 explains the consequences of an incorrect hypothesis. They can exist together in the same context or game rules without contradiction.</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They seem to be explaining different aspects or rules of a game, and they don't contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Statement 1 is about a specific detail contained in a hypothesis, while Statement 2 is about procedure if a hypothesis cannot be denied. They address different aspects and can both be true simultaneously.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing different aspects: Statement 1 talks about a detail included in a hypothesis, while Statement 2 explains a process that occurs when a hypothesis cannot be denied.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement discussing a detail within the hypothesis and the second statement addressing how information is shared about the hypothesis do not contradict or conflict with each other.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They address two different aspects - one talks about a murder weapon in a hypothesis, and the other talks about the understanding of a hypothesis among the players.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They discuss different aspects and could be part of the same narrative or scenario. The first statement is about the content of a hypothesis (regarding a murder weapon) and the second one is about the process or action taking place (informing players) if the hypothesis cannot be denied. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects of what seems to be a game scenario. Statement 1 is referring to a detail in a hypothesis and Statement 2 is about a rule of the game relating to hypotheses. There's no contradiction or opposition between them.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of what seems to be a game or investigation scenario. One is speaking about the content of a hypothesis, while the other is explaining a rule or procedure within the game regarding hypotheses.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement talks about the content of a hypothesis, specifically in a murder/mystery type of setting. The second statement is about the procedure that follows if a hypothesis cannot be denied, which applies to any kind of hypothesis, not just ones about murder. They coexist independently. They could both exist in the same system, and one doesn't contradict or make the other impossible.</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about different aspects and can exist together without contradiction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement explains what the hypothesis includes, while the second statement describes what happens if a player can disprove the hypothesis.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both happen in the same situation. The first statement is about what a hypothesis includes (a murder weapon), and the second statement is about how players communicate information in a game. These are two different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing two different aspects of a game or investigative process. Statement 1 is about the content of a hypothesis, and Statement 2 is about the rules of communication around disproving hypotheses.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They speak about  different aspects of a hypothetical scenario - the first talks about the content of a hypothesis (a murder weapon), and the second is about the action taken (communicating information) if a player can disprove the hypothesis. These can occur simultaneously without contradiction.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>No, the statements do not negate each other. They address two different aspects; Statement 1 is about the contents of a hypothesis, while Statement 2 is about the communication of information relating to the disproof of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement talks about a characteristic of a hypothesis (presence of a murder weapon), and the second statement talks about communication of information if a player can disprove the hypothesis. These two statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are both related to the rules of a game or an investigation process, but they do not contradict or negate one another.</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a game possibly like Clue or a similar detective-style game. Statement 1 is about a detail within a hypothesis while statement 2 is about the communication of information within the game.</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both exist in the same context, specifically in a scenario for a murder mystery game like Clue, where a player makes a hypothesis about the murderer and the murder weapon. The second statement pertains to the rules of the game in regard to proving or disproving those hypotheses.</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are providing information about procedures or components related to a hypothetical situation or game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement suggests that a hypothesis for a murder case includes a weapon, and the second statement explains the process of forming a hypothesis and how other players can disprove it. These statements could be part of the same scenario without causing any conflict or contradiction.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No, these two statements are not mutually exclusive. They can both occur or be true at the same time. They are both related to forming a hypothesis within a presumed murder investigation.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. Statement 1 refers to a hypothesis having a murder weapon, meaning a proposed explanation includes a specific murder weapon. Statement 2 explains a process of forming a hypothesis, including circumstances and perpetrator information, which others will then test with their evidence. The two statements can coexist as they both discuss elements of forming a hypothesis in a murder case.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement is saying that a hypothesis includes a potential murder weapon. The second statement is further elaborating on the process of hypothesis formation in a game setting, suggesting that the hypothesis can include circumstances of the murder and potential perpetrators as well as the murder weapon. While it is not specifying a murder weapon in the hypothesis as the first statement does, it does not exclude it either. Therefore, these two statements can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement talks about a hypothesis having a murder weapon, while the second statement describes how a hypothesis is formed about a murder circumstance and its perpetrator. They address different aspects of a hypothetical murder investigation.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are simply explaining different aspects of a hypothesizing process, especially in a game scenario. The first statement is about the inclusion of a murder weapon in a hypothesis, and the second statement is about hypothesizing the murder circumstance and perpetrator. Both can exist in the same hypothetical narrative.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement suggests a hypothesis includes a weapon used in a murder. The second statement explains the process of forming a hypothesis regarding the murderer and the circumstances, which other players should disprove. Both talk about hypotheses in a murder context.</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. Both deal with different aspects related to forming a hypothesis in a hypothetical murder case. Statement 1 suggests that the hypothesis involves a murder weapon, while Statement 2 explains the process of forming and disproving a hypothesis concerning the murder situation and perpetrator with evidence.</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement implies that a hypothesis or theory about a crime includes details about the murder weapon. The second statement describes a game or process in which a hypothesis is formed about a crime, and others are invited to disprove it using their own evidence. The murder weapon could be part of both statements.</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both discuss elements of a hypothesis in the context of a murder investigation. The first statement suggests that a hypothesis includes a murder weapon, and the second statement expands on the nature of a hypothesis, suggesting it includes aspects related to the murder circumstance and perpetrator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is about a hypothesis having a perpetrator while the second statement is about communicating the murder hypothesis to all players. They discuss different aspects relating to a hypothesis, therefore, they do not contradict.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time. In other words, a hypothesis can have a perpetrator (implying that a theory exists about who might have carried out some action). Additionally, the murder hypothesis (which presumably includes the perpetrator from statement 1) could be communicated to all players (indicating a sharing of information). They represent different aspects or events and do not contradict or exclude each other.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are speaking about two different aspects of a situation. Statement 1 talks about who may be involved in a hypothesis while statement 2 is about sharing information regarding a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 is indicating that a hypothesis involves an individual who is responsible for an event (in this case, presumably a murder). Statement 2 is saying that this said hypothesis is shared with all players, possibly in a game context. These two statements can coexist without contradiction. One is noting a feature of the hypothesis (a perpetrator) while the other is about sharing the hypothesis.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing different aspects related to a hypothesis. Statement 1 is talking about the existence of a perpetrator in a hypothesis, while statement 2 is about the communication of a specific (murder) hypothesis to all players.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>No, the statements are not inconsistent. The first statement is suggesting that a particular hypothesis (possibly related to a crime) has identified a perpetrator. The second statement is informing us that a specific hypothesis (in this regard, referring to a murder) is shared with all players involved. These players could be anyone who are part of the investigation or game, if it is being used in a context of a mystery game. Both statements can be true simultaneously and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. Statement 1 discusses the content of a hypothesis (it has a perpetrator), and Statement 2 discusses the action taken regarding a specific hypothesis (it is communicated to all players). They address different aspects and do not present contradictory information.</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a hypothesis. Statement 1 talks about the contents of a hypothesis (having a perpetrator), while Statement 2 discusses a particular type of hypothesis (a murder hypothesis) and its communication.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. A hypothesis in this context could refer to a theory about who committed a murder, in which case it would indeed specify a perpetrator. This hypothesis, or theory, could then be communicated to all players, like in a game or investigation. So, the first and the second statements can be related and don't contradict each other.</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. One speaks about the general concept of a hypothesis having a perpetrator, whilst the other talks about a specific action where a 'murder hypothesis' is communicated to all players, they are not opposing or contrasting each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Both suggest that a hypothesis, specifically a murder hypothesis in a game, includes a perpetrator.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. The first statement can be a part of the second statement since a perpetrator is included in the player's murder hypothesis.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They both refer to a hypothesis involving a perpetrator, which fits into the context of a game strategy mentioned in the second statement. The first one is more of a general statement which the second statement extends by providing specifics about the game.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They both mention a hypothesis involving a perpetrator, so they could be part of the same context, for example the rules of a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. Both statements involve a hypothesis having a perpetrator but in different contexts. The first statement is a general statement explaining a characteristic of a hypothesis (perhaps in the context of specific game or scenario). The second statement explains a specific situation where a player wins a game by correctly guessing a series of elements, one of which is a perpetrator. None of the statements negates or contradicts the other.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They both refer to a game where a player hypothesizes about a crime scenario. The first statement mentions that a hypothesis needs a perpetrator, and the second statement specifies what else is included in the hypothesis (a planet and a murder weapon) as well as how a player can win the game. These statements potentially describe mechanics for a mystery or crime-solving game.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. Both statements refer to a hypothesis involving a perpetrator, the second statement simply expands on the context and conditions surrounding the hypothesis.</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. Both are referring to a hypothesis having a perpetrator, though statement 2 provides more context, explaining it within the framework of a game.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. Both statements can coexist. The first statement simply indicates that a hypothesis includes a perpetrator and the second statement gives further detail about the specific type of hypothesis used in the game, which involves predicting a planet, a perpetrator, and a murder weapon.</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are referring to a game, where a hypothesis—including a perpetrator—is part of the gameplay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about two different things. Statement 1 refers to a hypothesis having a perpetrator, which implies a theory or guess about a possible culprit or instigator. Statement 2 discusses a solution being broadcast to all players, which seems to relate to a solved problem or answer being shared with a group.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both simultaneously be true in a particular context, such as in a game or experiment. The first statement doesn't hinder the possibility of the second statement being true, and vice versa. Mutually exclusive events cannot happen at the same time.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are discussing two different subjects and can coexist without contradiction. One is discussing a hypothesis having a perpetrator, possibly in a scientific or investigative context, while the other is discussing the broadcasting of a solution to all players, possibly in a game or problem-solving context.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement deals with a hypothesis having an initiator or cause, while the second statement describes a manner of sharing a solution. They address different aspects and can exist simultaneously without contradiction.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing different subjects - the first is about a hypothesis having a perpetrator and the second is about broadcasting a solution to all players.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can exist in the same context but they are discussing different topics. The first statement talks about a hypothesis having a perpetrator (which implies it's related to some sort of investigation or study), and the second statement refers to a solution being shared with all players (which implies some kind of game or problem-solving situation). They could potentially be related if the "game" is about solving a crime or mystery, for instance.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different subjects and can both be true at the same time.</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different subjects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are simply discussing different subjects or aspects. The first statement pertains to a hypothesis involving a perpetrator usually for a crime or wrongful act. The second statement refers to the action or process of sharing a solution with all players, maybe in a game or problem-solving situation. It could be potentially linked if the context involves solving crimes or culpability in a game setting.</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different subjects and do not offer opposing perspectives on the same topic. Statement 1 discusses a hypothesis having a perpetrator (presumably in a crime-related context), whereas Statement 2 discusses a solution being broadcast to all players (likely in a game or team-oriented context).</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They simply provide different information related to a hypothesis, presumably in some sort of murder mystery game or scenario. The first statement says that a hypothesis has a perpetrator, or someone who has committed a crime. The second statement says that when the correct hypothesis is announced, all players are informed of the circumstances of the murder, which doesn't negate or contradict the idea that a hypothesis has an identified perpetrator.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. It's possible for a hypothesis to have a perpetrator and for all players to be informed of the circumstances of the murder when the correct hypothesis is announced. These two events do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. Statement 1 is about a hypothesis having a potential perpetrator, and Statement 2 is about the process that unfolds when the correct hypothesis is announced. They address different aspects of what seems to be a game or investigation scenario.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement suggests that a hypothesis (in this context, likely relating to a murder mystery game or investigation) includes a suspected perpetrator. The second statement refers to the process in the game or investigation when the correct hypothesis is revealed, and all players or participants learn about the specifics of the murder. Their information may include, but is not necessarily limited to, the identity of the perpetrator.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of what seems to be a murder mystery game. Statement 1 is about the contents of a hypothesis (having a perpetrator), while Statement 2 is about the process that happens once a correct hypothesis is announced (players being informed of circumstances).</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They can coexist within the same context, such as in a murder mystery game. The first statement suggests that each hypothesis involves a potential perpetrator. The second statement suggests that when the true hypothesis (i.e., the accurate truth about the murder) is revealed, all players learn about the details of the murder.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other.</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement suggests that a hypothesis involves identifying a possible perpetrator. The second statement is discussing the process after a correct hypothesis is proposed, where all players are made aware of the details of the event, including presumably the identified perpetrator.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can exist in the same context. Statement 1 talks about a hypothesis having a specific perpetrator, which implies that the hypothesis could be regarding a crime or incident. Statement 2 indicates the action that takes place once the correct hypothesis about the incident is revealed, informing all players involved about the details of the incident. Therefore, the two statements do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are describing different aspects or procedures related to a hypothesis, likely in the context of a mystery or detective game. The first statement implies that a hypothesis includes a proposed perpetrator, while the second statement describes what happens after a hypothesis has been confirmed as correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement discusses the concept of a hypothesis having a perpetrator, while the second statement refers to how others are informed and need to be shown evidence that the hypothesis was refuted. They address different aspects and do not explicitly oppose each other.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time in a given situation. For example, a hypothesis in a criminal investigation could have a specific perpetrator, and other investigators could be informed that the hypothesis was refuted. They would then be shown the piece of evidence that refuted it.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement refers to a hypothesis having a perpetrator, possibly indicating that someone is responsible for creating or proposing it. The second statement refers to the hypothesis being refuted and the need for showing the evidence that contradicts it. The statements may be part of the same process or scenario with no conflicting points indicated.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement is implying that there is someone or something that has initiated or proposed the hypothesis. The second statement is speaking on how the hypothesis is proven or disproven. They are separate facets of a deductive process and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement talks about a hypothesis having a perpetrator, while the second statement discusses a hypothesis being refuted and other players needing evidence of this refutation. They address different aspects of a situation and don't necessarily contradict or negate each other.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. Statement 1 discusses the existence of a perpetrator in a hypothesis, while statement 2 talks about other players being informed of the refutation of said hypothesis without revealing the evidence. These two aspects can coexist in one scenario and hence, are not inconsistent.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement is about having a perpetrator in a hypothesis, whereas the second statement discusses the process of revealing information about a hypothesis being refuted to other players. They discuss different aspects of a situation.</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement discusses about the existence of a perpetrator in a hypothesis, while the second statement talks about the process of refuting a hypothesis and the need to show evidence. They discuss different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>No, the two statements are not incompatible. The first statement implies a hypothesis involving a specific individual or group, while the second statement involves the sharing of information concerning the validity of the hypothesis. Neither statement contradicts the other.</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both discuss aspects of how a hypothesis is handled or understood, but they do not contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to a feature of a hypothesis (having a perpetrator), whereas the second statement outlines the consequences of proposing an incorrect hypothesis in a game. They address different aspects and thus, do not conflict.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. The first statement refers to the concept of a perpetrator in a hypothesis, while the second statement refers to the consequences of an incorrect hypothesis in a game. These two could exist or occur independently and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. Statement 1 is talking about a hypothesis having a perpetrator, which might refer to the subject of the hypothesis. Statement 2 is describing the rules of a game involving hypotheses. There is no direct contradiction or conflict between these two pieces of information.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 defines a trait of a hypothesis (having a perpetrator), while Statement 2 describes the consequences of an incorrect hypothesis in the context of a game. They address different aspects related to a hypothesis and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a game involving hypotheses. The first statement talks about a hypothesis having a perpetrator, while the second one discusses the consequences of an incorrect hypothesis.</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement is defining that a hypothesis involves a perpetrator. The second statement is explaining the rules of a game if a hypothesis is incorrect. They can both exist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement discusses a characteristic of a hypothesis, while the second statement discusses potential consequences of an incorrect hypothesis in a game situation.</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement is suggesting that a hypothesis has someone who perpetuates or creates it. The second statement is describing a rule or consequence in a game involving hypotheses. There is no direct conflict or contradiction between these two statements.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement is simply stating that a hypothesis has someone who proposed it, or a "perpetrator". The second statement is laying out the consequences of an incorrect hypothesis in a game setting. These two statements can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a hypothesis in a game setting. The first is about a person (perpetrator) behind a hypothesis, while the second explains what happens if a hypothesis is proven incorrect in the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are discussing different aspects of a hypothesis. Statement 1 is about the creator or originator of a hypothesis (perpetrator). Statement 2 is about the process or result after the hypothesis is tested or evaluated.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. The presence of a perpetrator in a hypothesis doesn't prevent the possibility of all players being informed if the hypothesis cannot be denied, and vice versa.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement talks about the existence of a perpetrator in a hypothesis, while the second statement is about the process of informing all players if the hypothesis cannot be denied. They are speaking about different aspects and can both exist in the same scenario.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement talks about a hypothesis having a perpetrator, while the second statement describes a possible reaction in a game or social dynamics if a hypothesis cannot be denied. They are discussing different aspects and can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are addressing different aspects of a hypothesis and do not contradict.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement says a hypothesis has a perpetrator and the second statement provides a condition regarding the hypothesis. They are not contradictory to each other.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are addressing different aspects of a situation, one referring to the characteristics of a hypothesis and the other discussing the procedure if a hypothesis cannot be denied.</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects related to a hypothesis and can coexist without contradicting each other. The first statement refers to a hypothesis having a "perpetrator," while the second refers to the communication of information if a hypothesis cannot be denied.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They deal with different aspects of a hypothetical situation. Statement 1 refers to the existence of a perpetrator in a hypothesis, while Statement 2 refers to the procedures that ensue when a hypothesis cannot be denied. They can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They discuss different aspects of a hypothesis: the first one talks about a perpetrator related to a hypothesis while the second one is about the process when the hypothesis cannot be denied.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement is about a characteristic of a hypothesis (having a perpetrator), and the second statement is about a process (communicating information about disproving a hypothesis). They are about different aspects and do not conflict with each other.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur in the same situation. For example, a hypothesis can have a perpetrator (Statement 1), and if a player can disprove that hypothesis, that information can be communicated only to the inquiring player (Statement 2). Both these statements can co-exist within the same scenario without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They address different aspects of a hypothesis within a game setting. Statement 1 refers to a hypothesis having a perpetrator or cause, while statement 2 refers to the communication procedure if a player disproves the hypothesis.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. One statement talks about the content of a hypothesis (having a perpetrator) while the other explains a rule about how information related to the hypothesis is shared if the hypothesis is disproved. They address different aspects and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of the same situation and can both be true at the same time. The first statement discusses the content of a hypothesis, while the second statement discusses the process that follows if a hypothesis is disproven.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement describes a feature of the hypothesis (it having a perpetrator) and the second statement describes a process related how the hypothesis is disproved and the information is communicated.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement is about a characteristic of a hypothesis, while the second statement describes how information about disproving a hypothesis is communicated.</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing two different aspects of a hypothetical situation. The first statement is about the content of a hypothesis (it has a perpetrator), and the second statement is about the process following the hypothesis (how the information is communicated if the hypothesis is disproved).</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. The first statement discusses the content of the hypothesis (that it involves a perpetrator), while the second statement outlines a rule about how information about the hypothesis is shared. These two statements could apply to the same situation without conflict.</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. The first statement describes a hypothesis having a perpetrator, while the second statement discusses the scenario when a player can disprove the hypothesis. These statements are dealing with different aspects and do not necessarily contradict each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Both statements refer to a hypothesis involving a perpetrator, meaning someone or something that has committed a particular action or crime. The difference is in how the hypothesis is being used or formed. In the first statement is a simple fact, while the second statement describes a process.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both exist or be true at the same time. The first statement simply suggests that the hypothesis involves a perpetrator. The second statement details a scenario where a hypothesis is formed involving a murder circumstance and a perpetrator, which does not contradict the first statement.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. Both statements acknowledge the existence of a perpetrator in the hypothesis.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Both statements imply that a hypothesis includes a potential perpetrator. In the first statement, it is directly stated that a hypothesis has a perpetrator. In the second statement, the hypothesis for the murder situation also includes a potential perpetrator.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They both refer to a hypothesis involving a perpetrator, but they don't make contradictory claims. Statement1 implies that a hypothesis involves a perpetrator. Statement2 describes a situation where a hypothesis involving a perpetrator and crime circumstance is formed and others are invited to disprove it. Both involve a perpetrator in a hypothesis but contradicting each other.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement suggests that a hypothesis includes the idea of a perpetrator, while the second statement further explains how a hypothesis about a perpetrator can be formed and used in a game scenario. They both deal with the concept of a hypothesis involving a perpetrator.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They both suggest that a hypothesis includes a potential perpetrator.</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>No, the two statements are not in disagreement. They both suggest the involvement of a perpetrator in a hypothesis, especially in relation to a murder investigation/circumstance.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. Both statements discuss the concept of a hypothesis in a crime or murder inquiry scenario and reference a perpetrator, or person who committed a crime. Statement 1 asserts that a hypothesis has a perpetrator, and statement 2 expands on this idea by detailing how a hypothesis about a murder circumstance and perpetrator is formed and tested.</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. Both suggest that a hypothesis can involve a perpetrator, especially in a context of a murder mystery or crime investigation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to a hypothesis being refuted, or proven wrong. The second statement talks about a specific hypothesis (in this case a murder hypothesis) being communicated to a certain group (the players). There is no contradiction as these statements refer to different situations and aspects of hypotheses.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time without contradicting each other. One statement is about a hypothesis being refuted without indicating any specific hypothesis, while the other is about a specific "murder hypothesis" being communicated to all players.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement talks about a hypothesis having a refuted hypothesis, which is more about the process or structure of hypotheses. The second one discusses a specific scenario in which a murder hypothesis is communicated to all players, potentially in a game or investigation scenario. These two statements could be part of the same context but they do not directly contradict or clash with each other.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement implies that a particular theory or hypothesis has been proven untrue. The second statement simply implies the communication of a theory (in this case, about a murder) to a group of people. There's no contradiction or conflict between the two statements.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a hypothesis and do not oppose or contradict each other.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are discussing different aspects and can both be true. The first statement talks about the possibility of a hypothesis being refuted, while the second statement simply communicates a specific hypothesis (the murder hypothesis) to all players.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are talking about different aspects of hypotheses: the first statement talks about the outcome of a hypothesis, while the second statement discusses communication of a particular hypothesis in a game.</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they discuss different aspects of hypotheses. Statement 1 talks about a refuted hypothesis while statement 2 explains the communication of a specific hypothesis to a group of people.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement is discussing the part of scientific process where a proposed hypothesis has been proven wrong. The second statement is about a specific scenario in a game, where a "murder hypothesis" is shared among players. They discuss different concepts and can exist together without contradiction.</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different aspects of a hypothesis and are not necessarily related or opposed to each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They seem to be referring to two different contexts. Statement 1 is referring to a scientific or philosophical context of proving or disproving a hypothesis. Statement 2 is referring to a specific game's rules, where a player can win by correctly guessing certain variables.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur independently as they are discussing different contexts - Statement 1 is about the scientific process of hypothesis testing, and Statement 2 is about a specific game rule.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They may pertain to different contexts, but there isn't any direct contradiction or argument between them.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are discussing different contexts of the term "hypothesis". Statement 1 refers to hypothesis in the context of scientific research where it can be refuted. Statement 2 refers to hypothesis in the context of a game scenario, where a correct hypothesis wins the game. They are not contradictory.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>No, these two statements do not negate each other. They are discussing different things - the first mentions a refuted hypothesis generally, while the second is discussing a specific game scenario about making a correct murder hypothesis.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>The statements are not inconsistent as they are discussing two different contexts of a 'hypothesis'. 
+Statement 1: This statement is likely discussing scientific methods. In this context, a hypothesis is an idea or theory that is not proven but leads to further study or discussion.
+Statement 2: This statement is seemingly in the context of a game where a player must figure out the specific circumstances of a murder, similar to the game of "Clue". A hypothesis in this context is more of a guess or prediction that the player makes based on the information available.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different aspects and contexts of a hypothesis. One relates to the scientific concept of a hypothesis being disproven, while the other refers to a hypothesis within the context of a game. They are not contradictory.</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are not even addressing the same subject matter. Statement 1 is speaking to the nature of a hypothesis in general terms, possibly within a scientific or academic context, while statement 2 describes specific game rules.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement refers to the logical or scientific process where a hypothesis is disproven or refuted. The second statement is a rule within a game setting, possibly a mystery game, where a player can win by correctly guessing or deducing a specific scenario. These two statements can exist in the same context without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are talking about hypotheses in different contexts - the first one in a general sense and the second one within the framework of a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. They are talking about different subjects. The first statement is about a hypothesis while the second one is about a solution being communicated to all players.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously without contradicting each other. The first statement refers to a stage in scientific research, while the second statement can pertain to a conclusion broadcast in a game or problem-solving situation. There is no direct relationship or contradiction between the two scenarios.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other as they are discussing different subjects. The first is about a hypothesis; the second is about broadcasting a solution, presumably in a game or collaborative situation.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They discuss different concepts - the first one illustrates a process in scientific inquiry where a hypothesis is disproven, and the second one illustrates a process in a collaborative or game scenario where a solution is shared with all participants. There's no contradiction or conflict between these two contexts.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are simply related to different subjects. Statement 1 deals with a hypothesis in the context of scientific research or reasoning, while Statement 2 relates to a solution being relayed to all participants in possibly a game or a collaborative context. These two statements might not be directly related, but they don't contradict each other either.</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They are discussing different topics entirely - one is about hypotheses in a research context, and the other is about broadcasting a solution, potentially in a game or team activity.</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement as they are discussing different topics. Statement 1 is about the concept of a hypothesis in a research or scientific context, while statement 2 refers to the sharing of a solution, possibly in a game or team problem-solving scenario.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They are unrelated, as they pertain to different topics, the first one being about hypotheses testing and the second one about information sharing. However, they might indirectly relate if the hypothesis was part of a problem in a game or competition setup, where the refuted hypothesis and its implications are shared with all players.</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are discussing different things and are not related to each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement refers to a hypothesis being refuted, while the second statement discusses what happens when the correct hypothesis is announced in the context of a game, presumably. They discuss different aspects of hypotheses and are not directly comparable in a way that would create a contradiction.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur simultaneously. One refers to the status of a hypothesis, while the other refers to the communication process in a game.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are about different aspects. Statement 1 refers to the status of a hypothesis and Statement 2 explains what happens when the correct hypothesis is announced.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. They are related to different contexts - Statement 1 is about the validity of a hypothesis itself, while Statement 2 is about information sharing in a game or scenario once the correct hypothesis is announced. They can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They discuss completely different subjects. The first one is about the status of a hypothesis, while the second one relates to a hypothesis in the context of a game or speculative scenario.</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They discuss different aspects of hypotheses and do not present contradictory information. Statement 1 refers to the condition of a hypothesis, while Statement 2 refers to the action taken once a correct hypothesis is confirmed.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They discuss different aspects and can exist independently. The first statement talks about a hypothesis being refuted, whereas the second statement discusses what happens when a correct hypothesis is revealed in a specific scenario (a murder investigation game, for instance).</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Yes, these statements are in disagreement as they are discussing two different topics or scenarios. Statement 1 is about a hypothesis being refuted, whereas Statement 2 is about a specific scenario related to a hypothetical murder investigation game. They do not seem to have any common point of argument or discussion.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They address different aspects - statement 1 refers to a possible state of a hypothesis, while statement 2 describes a situation in a game or study where a correct hypothesis is given. They can both exist and function independently or together, and one's existence doesn't disprove or negate the other.</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They refer to different aspects and don't offer opposing views on the same topic. The first one talks about a hypothesis within a scientific or investigatory context, while the second refers to a hypothetical game scenario involving a murder mystery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a hypothesis being refuted while the second discusses the process to inform other players about it. They are addressing different aspects of the same scenario.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They can both occur at the same time. The first statement refers to a hypothesis being refuted, and the second statement refers to other players being informed about the refutation but needing evidence. One event does not prevent the other from happening.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. They are both discussing a situation where a hypothesis was refuted. The first statement simply states that a hypothesis has been refuted. The second statement explains that others have been told about the refuted hypothesis but need to see the evidence that led to its refutal.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement is saying that a particular hypothesis has been refuted or proven wrong. The second statement is simply explaining that other individuals have been informed about this refutation and now need to see the evidence that proved the hypothesis wrong. The two statements can exist together without contradiction.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. The first statement is about a hypothesis being refuted or disproved. The second statement is about informing other players about the refuted hypothesis and showing them the evidence. These two statements can coexist without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement suggests that a hypothesis has been refuted or disproven, while the second statement indicates that while others are aware of this refutation, they require evidence of it. These two statements can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first one talks about a refuted hypothesis, while the second one provides additional information about what needs to be done after a hypothesis is refuted. The statements concern the same topic, but from different perspectives.</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement talks about a hypothesis being refuted, while the second one just explains the subsequent procedures after a hypothesis has been refuted. They do not contradict or disagree with each other.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They can both be true in a scenario where a scientific hypothesis has been disproven with evidence (Statement 1). When this occurs, other individuals or players in the field may be informed about the refutation of the hypothesis, but they will likely need to see the specific piece of evidence that led to its refutation to fully understand and accept this conclusion (Statement 2).</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They are about different aspects of the same event where a hypothesis was refuted - statement 1 states that a hypothesis has been refuted and statement 2 discusses what needs to happen after that event.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Statement 1 implies that a hypothesis can be refuted or challenged. Statement 2 elaborates on the consequences of an incorrect hypothesis in a game scenario. Both acknowledge the possibility of a hypothesis being refuted.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. Mutually exclusive events are those which cannot happen at the same time. In this case, Statement 1 and Statement 2 can both be true; they do not contradict or exclude each other. Statement 1 could be true in some cases, and Statement 2 could also be true in others, or they could be true in the same case. So they are not mutually exclusive.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first one talks about a hypothesis having a refuted hypothesis. The second statement explains the consequences of posing an incorrect hypothesis within a game. They can exist together without contradicting each other.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement is referring to a possible scenario in which a hypothesis has been proven untrue. The second statement explains the rules of a game, stating what happens if a hypothesis in that context is proven false. Therefore, no conflict arises between these two statements.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of hypotheses in the context of a game. The first statement suggests a hypothesis has been contradicted or disproven. The second statement details the consequences of an incorrect hypothesis in a specific game.</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. They are discussing different aspects of a game or process involving hypotheses. The first statement is asserting that a hypothesis can have a refuted hypothesis, while the second statement is describing a rule of a game where an incorrect hypothesis results in a player losing the ability to pose hypotheses. They are not contradictory and can both be true in the context they're discussing.</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement defines a situation where a hypothesis has been refuted or proven wrong. The second statement describes the consequences in a game setting when a player's hypothesis is incorrect. They don't contradict; instead, they both regard the implications of an incorrect or refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. The first statement suggests that a hypothesis can have a refuted (disproven) hypothesis, while the second statement describes a scenario in which a wrong hypothesis leads to specific consequences in a game. However, neither statement contradicts or conflicts with the other.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. They discuss different aspects of a game involving hypotheses. The first statement discusses a condition where a hypothesis has been refuted, while the second explains the consequence of a player announcing an incorrect hypothesis. Both concepts can exist in the same game.</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both discuss the concept of a hypothesis being refuted or incorrect, they just apply it to different scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Statement 1 discusses a scenario where a hypothesis is refuted. Statement 2 discusses a different scenario where a hypothesis cannot be denied. These scenarios might pertain to different hypotheses or the same hypothesis at different times or under different conditions.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. Mutual exclusivity means that if one statement is true, the other must be false. In this case, one statement can be true without necessarily impacting the truth or falsehood of the other. A hypothesis can be refuted (i.e., proven false) independently of whether players are informed of a hypothesis not being deniable. Similarly, players can be informed about the undeniability of a hypothesis whether or not another hypothesis has been refuted.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>No, these statements do not necessarily clash or conflict with each other. Statement 1 talks about a hypothesis that has been refuted or proven wrong. Statement 2 is about a hypothesis that cannot be denied and everyone being informed about it. These can both be true in different circumstances or different hypotheses. It does not necessarily imply a contradiction. The conflict or clash would arise if these statements were talking about the same hypothesis in the same context.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The first statement claims that a hypothesis can have a refuted hypothesis, and the second one asserts that if a hypothesis can't be denied, all players will be informed. The second statement is more about the procedure when the hypothesis can't be denied, not contradicting the possibility of a hypothesis having a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other.</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement refers to a situation where a hypothesis is disproven by another hypothesis. The second statement refers to a situation where a hypothesis cannot be denied and everybody is informed about it. These statements can both exist in the same scenario and do not necessarily contradict each other.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They discuss different aspects of a hypothesis - one discusses a refuted hypothesis and the other discusses an irrefutable hypothesis.</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a hypothesis. Statement1 is about a hypothesis being refuted, while Statement2 is about communicating the fact when a hypothesis cannot be denied. They do not present conflicting views.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement discusses a situation where a hypothesis is proven wrong, while the second statement talks about an event where a hypothesis is proven right or cannot be denied. They discuss two different scenarios and can co-exist without contradicting each other. However, it does rely on the context of the "game" or system in which these hypotheses are being used.</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. The first statement talks about a hypothesis having a refuted hypothesis, while the second statement discusses the scenario where a hypothesis cannot be denied. They are discussing different aspects of hypotheses and their verification or denial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. Statement 1 talks about a refuted hypothesis, while Statement 2 explains a process where disproved information is communicated. Neither statements provide conflicting information about the same fact.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They are addressing different aspects - one is stating a condition about a possible state of a hypothesis (refuted or not), and the other is addressing a condition of information sharing about a hypothesis. It's possible for both of these conditions to exist at the same time.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>No, these statements do not conflict with each other. The first statement suggests that a hypothesis may be incorrect, while the second simply outlines a method of communicating the results of a disproof - specifically, to the player who inquired about the hypothesis. They operate on slightly different assumptions about the scenario, but they do not necessarily clash.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. The statements are discussing different aspects of hypotheses. Statement 1 is talking about a hypothesis containing a disproven hypothesis, while statement 2 is discussing the process of communication when a hypothesis is disproven. These two statements can coexist without contradiction.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. They are discussing different aspects of a hypothesis. Statement 1 is about a hypothesis that has been refuted. Statement 2 deals with the scenario where a player can disprove the hypothesis and the communication of that information.</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. The first statement talks about the nature of a hypothesis, suggesting that it can be debated or refuted. The second statement discusses a specific situation where disproving a hypothesis is related to a player (possibly in a game or an investigation). It describes how the information is communicated when a hypothesis is disproved. Both statements can coexist without negating or contradicting each other.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. The first statement talks about a hypothesis having a falsified outcome while the second statement discusses the communication of the disproval of a hypothesis to a specific individual.</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of a hypothesis. Statement 1 refers to the possibility of a hypothesis being refuted while Statement 2 refers to the process of communicating that refutation to a particular player. They do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>No, these two statements are not incompatible. In Statement 1, it's suggested that a hypothesis has been challenged or disproved. Statement 2 refers to a game or study scenario, where a player or participant who disproves a hypothesis only shares that information with the inquiring player or the one who asked for it. The two situations could exist simultaneously and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. The first statement speaks about a refuted hypothesis, whereas the second statement discusses the communication process related to disproving a hypothesis in a game. They refer to different aspects and can both coexist without conflict.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No, these statements do not contradict each other. The first statement talks about a hypothesis being refuted or disproven which is a part of scientific investigation. The second statement gives a specific example of forming a hypothetical scenario during a game where players are encouraged to disprove a purported scenario with their evidence. In both statements, refuting or disproving a hypothesis is being discussed.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No, these statements are not mutually exclusive. They address different aspects of hypothesis formulation and testing and can both occur in the same context, such as in a game of Clue or during a scientific investigation.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>No, these statements do not clash or conflict with each other. The first statement simply implies that a hypothesis can be proven wrong, while the second statement provides a context where a hypothesis is used (in a murder mystery game, it seems) and can be disproven with the help of other participants. It could be inferred that the hypothesis mentioned in the second statement could become the refuted hypothesis mentioned in the first statement if the players managed to disprove it with their evidence.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>No, these statements are not at odds with each other. Statement 1 suggests that a hypothesis can be disproven or opposed by another hypothesis. Statement 2 applies the concept of disproving a hypothesis to a specific scenario, where the hypothesis is about the circumstances and perpetrator of a murder and the other players are invited to disprove it with their evidence. They are two separate statements discussing the same concept of a hypothesis being refuted or disproven.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>No, these statements do not negate each other. Statement 1 talks about a hypothesis that has been disproved or refuted. Statement 2, on the other hand, presents a scenario wherein a hypothesis is formed and others are invited to either prove or disprove it. They are discussing different situations or contexts and do not contradict each other.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>No, these statements are not inconsistent. Statement 1 suggests that a hypothesis can have an associated proposition that has been disproven. Statement 2 describes a scenario where a hypothesis is formed and others are requested to disprove it, which correlates with the idea in Statement 1 of a hypothesis having a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>No, these statements do not oppose each other. They both discuss the concept of using evidence or questioning to disprove hypotheses, or tentative assumptions made in order to draw out and test its logical or empirical consequences.</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>No, these statements are not in disagreement. They are discussing different aspects of how a hypothesis can be used or challenged, but they do not conflict with each other. Statement 1 states a fact that a hypothesis can be refuted whereas statement 2 is explaining a scenario using a murder game for instance where a hypothesis is presented to be disproved.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>No, these statements are not incompatible. The first statement is expressing that a hypothesis can be disproved using another hypothesis. The second statement is a scenario where a hypothesis is formed based on the questions surrounding a murder case, and others are invited to disprove this hypothesis with their evidence. Therefore, the two statements can logically coexist.</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>No, these statements do not present conflicting viewpoints. They both discuss the concept of a hypothesis and the process of disproving it.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
